--- a/Casos Cartera/Procesos Financieros.xlsx
+++ b/Casos Cartera/Procesos Financieros.xlsx
@@ -5,36 +5,31 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelV\Documents\GitHub\Global-Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelV\Documents\GitHub\Global-Testing\Casos Cartera\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787"/>
   </bookViews>
   <sheets>
-    <sheet name="Trabajar con remesas" sheetId="15" r:id="rId1"/>
-    <sheet name="ID Operación (TCR)" sheetId="38" r:id="rId2"/>
-    <sheet name="Asignación ejecutivos" sheetId="16" r:id="rId3"/>
-    <sheet name="Centralización Cheques" sheetId="18" r:id="rId4"/>
-    <sheet name="Centralización Créditos Nuevos" sheetId="17" r:id="rId5"/>
-    <sheet name="Centralización Mensual" sheetId="19" r:id="rId6"/>
-    <sheet name="Centralización Recaudaciones" sheetId="20" r:id="rId7"/>
-    <sheet name="Selección de créditos (afianza)" sheetId="21" r:id="rId8"/>
-    <sheet name="Generación XML (afianza)" sheetId="22" r:id="rId9"/>
-    <sheet name="Liquidación seguro cesantía" sheetId="23" r:id="rId10"/>
-    <sheet name="Liquidacición seguro desgravame" sheetId="24" r:id="rId11"/>
-    <sheet name="Generar Archivo SBIF D92" sheetId="25" r:id="rId12"/>
-    <sheet name="Generar Archivo SBIF D93" sheetId="26" r:id="rId13"/>
+    <sheet name="Todos" sheetId="15" r:id="rId1"/>
+    <sheet name="Alzamiento leasing" sheetId="38" r:id="rId2"/>
+    <sheet name=" Forzar Alzamiento" sheetId="16" r:id="rId3"/>
+    <sheet name="Cambio de Prenda" sheetId="18" r:id="rId4"/>
+    <sheet name=" Forzar Prenda" sheetId="17" r:id="rId5"/>
+    <sheet name="Prenda Retenido" sheetId="19" r:id="rId6"/>
+    <sheet name=" PreFacturación" sheetId="20" r:id="rId7"/>
+    <sheet name="Prendas AFIANZA" sheetId="21" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Trabajar con remesas'!$A$2:$O$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Todos!$A$2:$Q$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="292">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -365,33 +360,6 @@
     <t>Tarjeta</t>
   </si>
   <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Concepto</t>
-  </si>
-  <si>
-    <t>Cuenta
-Contabilización</t>
-  </si>
-  <si>
-    <t>Recaudos
-Otros</t>
-  </si>
-  <si>
-    <t>Segmentos</t>
-  </si>
-  <si>
-    <t>Sub Estados CAV</t>
-  </si>
-  <si>
-    <t>Sub Estados
-Tipos</t>
-  </si>
-  <si>
-    <t>Bien Descripcion</t>
-  </si>
-  <si>
     <t>TC_Cartera_Empresa_ConsolidadoError</t>
   </si>
   <si>
@@ -401,199 +369,6 @@
     <t>TC_Cartera_FormasPago_ConsolidadoError</t>
   </si>
   <si>
-    <t>TC_Cartera_Recaudacion_ConsolidadoError</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_AgregarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_AgregarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_AgregarEnlaceModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_EliminarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_EliminarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_EliminarSinExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_ModificarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_ModificarEnlace</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_ModificarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_Modificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_AgregarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_AgregarEnlaceModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_EliminarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_EliminarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_EliminarSinExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_ModificarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_ModificarEnlace</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_ModificarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_Modificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_ConsolidadoError</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_AgregarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_AgregarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_AgregarEnlaceModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_EliminarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_EliminarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_EliminarSinExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_ModificarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_ModificarEnlace</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_ModificarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_Modificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_ConsolidadoError</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_AgregarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_AgregarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_AgregarEnlaceModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_EliminarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_EliminarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_EliminarSinExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_ModificarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_ModificarEnlace</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_ModificarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_Modificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_ConsolidadoError</t>
-  </si>
-  <si>
-    <t>Bien
-Descripcion</t>
-  </si>
-  <si>
     <t>Sistema debe de emitir mensaje de alerta correspondiente a cada situación</t>
   </si>
   <si>
@@ -622,49 +397,6 @@
   </si>
   <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Formas de pago, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
-  </si>
-  <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Recaudacion, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_AgregarConsulta</t>
-  </si>
-  <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Segmentos, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
-  </si>
-  <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Sub Estatos CAV, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
-  </si>
-  <si>
-    <t>TIpo Bien</t>
-  </si>
-  <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo TIpo Bien, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
-  </si>
-  <si>
-    <t>Remesas</t>
-  </si>
-  <si>
-    <t>PDF</t>
-  </si>
-  <si>
-    <t>Depositar
-Remesa</t>
-  </si>
-  <si>
-    <t>Enlace ID</t>
   </si>
   <si>
     <t>General</t>
@@ -759,48 +491,6 @@
     <t>Legal</t>
   </si>
   <si>
-    <t>TC_Cartera_ProcesoRemesa_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_AgregarGeneral</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_GenerarPDF</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_EnlaceGeneral</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_AgregarDepositarRemesa</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_DepositarRemesa</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_PDFDepositarRemesa</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_RemesaPDF</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_AgregarPDF</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_AgregarDepositarPDF</t>
-  </si>
-  <si>
-    <t>Archivo PDF generado de manera exitosa</t>
-  </si>
-  <si>
-    <t>Archivo PDF generado y consulta de manera exitosa</t>
-  </si>
-  <si>
-    <t>Deposito de remesa de maera exitosa</t>
-  </si>
-  <si>
-    <t>Archivo PDF generado y deposito de remesa de manera exitosa</t>
-  </si>
-  <si>
     <t>TC_Cartera_ProcesoRemesa_ConsolidadoError</t>
   </si>
   <si>
@@ -1142,37 +832,95 @@
     <t>Exclusion de pagare de manera exitosa</t>
   </si>
   <si>
-    <t>TC_Cartera_ProcesoXML_OfertaTD</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoXML_RestoXML</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoXML_CartaGuiaID</t>
-  </si>
-  <si>
-    <t>Validar emisión XML con la opción oferta y TD</t>
-  </si>
-  <si>
-    <t>Validar emisión XML con la opción resto XML</t>
-  </si>
-  <si>
-    <t>Validar emisión XML, sin indicar ID de carta guía</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generación XML (afianza), ingresar ID válido de carta guía, hacer clic en boton Generar XML Oferta y TD</t>
-  </si>
-  <si>
-    <t>XML generado exitosamente</t>
-  </si>
-  <si>
-    <t>Sisteme emite mensaje indicando "Debe ingresar Carta Guia"</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generación XML (afianza), ingresar ID válido de carta guía, hacer clic en boton Resto XML</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generación XML (afianza), hacer clic en boton Generar XML Oferta y TD</t>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Funcionalidad</t>
+  </si>
+  <si>
+    <t>Enviar proceso</t>
+  </si>
+  <si>
+    <t>No prendar</t>
+  </si>
+  <si>
+    <t>Ver WorkFlow</t>
+  </si>
+  <si>
+    <t>Obtener
+ Documentos</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFTodos_EnviarProceso</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFTodos_NoPrendar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFTodos_Ver</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFTodos_ObtenerDocumentos</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFTodos_Eliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFTodos_AgregarError</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar nuevo registro de proceso "pagaré", finalizando con el envío de proceso</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo Todos, hacer clic en boton agregar, seleccionar tipo de proceso pagaré, ingresar número de operación valido, hacer clic en boton confirmar, hacer clic en boton enviar proceso, ingresar datos correspondientes, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Proceso y envío generado de manera exitosa</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar nuevo registro de proceso "Solicitud de Certificados", considerando la opcion no prendar</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar nuevo registro de proceso "Dación ley nueva", consultando workflow de registro y finalizando con la modificacion</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar nuevo registro de proceso "Legalización de Documentos", consultando documentos y finalizando con la exportacion de archivo excel</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar nuevo registro de proceso, seleccionando tipo de proceso que no es de creación directa</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo Todos, hacer clic en boton agregar, seleccionar tipo de proceso solicitud certificado, ingresar número de operación valido, hacer clic en boton confirmar, hacer clic en boton no prendar, ingresar datos correspondientes, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Proceso generado y registro no prendado de manera exitosa</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo Todos, hacer clic en boton agregar, seleccionar tipo de proceso dacion ley nueva, ingresar número de operación valido, hacer clic en boton confirmar, hacer clic en boton ver workflow para visualizar datos del registro, hacer clic en boton modificar para editar registro.</t>
+  </si>
+  <si>
+    <t>Consulta y modificación de registro de manera exitosa</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo Todos, hacer clic en boton agregar, seleccionar tipo de proceso Legalización de Documentos, ingresar número de operación valido, hacer clic en boton confirmar, hacer clic en boton obtener documentos, finalizando con exportar excel</t>
+  </si>
+  <si>
+    <t>Consulta de documentos y archivo excel exportado de manera exitosa</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar nuevo registro de proceso "Transferencia",  considerando la opcion eliminar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo Todos, hacer clic en boton agregar, seleccionar tipo de proceso Transferencia, ingresar número de operación valido, hacer clic en boton confirmar, hacer clic en boton eliminar</t>
+  </si>
+  <si>
+    <t>Proceso ingresado de manera exitosa, sistema debe emitir mensaje indicando que "Eliminación no válida, hay información en Proceso Bitacora"</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo Todos, hacer clic en boton agregar, seleccionar tipo de proceso prenda, ingresar número de operación valido, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando Solo se pueden imputar Tipo de Proceso de creación directa</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +965,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1318,11 +1066,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1398,9 +1157,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1426,6 +1182,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1447,18 +1206,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1467,6 +1214,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1480,11 +1239,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1790,1935 +1556,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="10" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="54.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="255.42578125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="255.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="62" customWidth="1"/>
+    <col min="4" max="8" width="6.140625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="54.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="160.5703125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="255.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="135.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46" t="s">
-        <v>207</v>
-      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="41" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="I3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,"")," ",IF(C3=1,$C$2,"")," ",IF(D3=1,$D$2,"")," del modulo Procesos, sub-modulo Trabajar con Remesa",IF(E3=1,", considerando la opcion enlace ID pestaña General",IF(F3=1,", considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel","")))</f>
-        <v>Validar funcionalidad Agregar   del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
-      </c>
-      <c r="J3" s="7" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton ",IF(B3=1," agregar para el registro de nuevo registro","")," ",IF(C3=1," generar archivo PDF","")," ",IF(D3=1," depositar remesa",""),IF(E3=1,", considerando la opcion enlace ID pestaña general para consultar registro",IF(F3=1,", considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel","")))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro  , considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I4" s="12" t="str">
-        <f t="shared" ref="I4:I12" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,"")," ",IF(C4=1,$C$2,"")," ",IF(D4=1,$D$2,"")," del modulo Procesos, sub-modulo Trabajar con Remesa",IF(E4=1,", considerando la opcion enlace ID pestaña General",IF(F4=1,", considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel","")))</f>
-        <v>Validar funcionalidad Agregar   del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña General</v>
-      </c>
-      <c r="J4" s="7" t="str">
-        <f t="shared" ref="J4:J12" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton ",IF(B4=1," agregar para el registro de nuevo registro","")," ",IF(C4=1," generar archivo PDF","")," ",IF(D4=1," depositar remesa",""),IF(E4=1,", considerando la opcion enlace ID pestaña general para consultar registro",IF(F4=1,", considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel","")))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro  , considerando la opcion enlace ID pestaña general para consultar registro</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="I5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad  PDF  del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
-      </c>
-      <c r="J5" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF , considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="I6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad  PDF  del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña General</v>
-      </c>
-      <c r="J6" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF , considerando la opcion enlace ID pestaña general para consultar registro</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar  Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
-      </c>
-      <c r="J7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro   depositar remesa, considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="I8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar  Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña General</v>
-      </c>
-      <c r="J8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro   depositar remesa, considerando la opcion enlace ID pestaña general para consultar registro</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad  PDF Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
-      </c>
-      <c r="J9" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF  depositar remesa, considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25">
-        <v>1</v>
-      </c>
-      <c r="D10" s="24">
-        <v>1</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="I10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad  PDF Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa</v>
-      </c>
-      <c r="J10" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF  depositar remesa</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="I11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar PDF Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
-      </c>
-      <c r="J11" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro  generar archivo PDF  depositar remesa, considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="B12" s="25">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar PDF Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña General</v>
-      </c>
-      <c r="J12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro  generar archivo PDF  depositar remesa, considerando la opcion enlace ID pestaña general para consultar registro</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="27"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="J37" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-    </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="4.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="51.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="255.42578125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="255.42578125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="79" style="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="14" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="42"/>
+      <c r="C2" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>266</v>
+      </c>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="34" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="21">
-        <v>12</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace concepto para modificar registro",IF(G3=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 12</v>
-      </c>
-      <c r="M3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace concepto para modificar registro",IF(G3=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 12</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L4" s="12" t="str">
-        <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace concepto para modificar registro",IF(G4=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,J4,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 10</v>
-      </c>
-      <c r="M4" s="12" t="str">
-        <f t="shared" ref="M4:M17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace concepto para modificar registro",IF(G4=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,J4,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 10</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="M5" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="M6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion</v>
-      </c>
-      <c r="M7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="21">
-        <v>30</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 30</v>
-      </c>
-      <c r="M8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 30</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10">
-        <v>5</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 5</v>
-      </c>
-      <c r="M9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 5</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="M10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="M11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion</v>
-      </c>
-      <c r="M12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="21">
-        <v>2</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 2</v>
-      </c>
-      <c r="M13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 2</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10">
-        <v>3</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 3</v>
-      </c>
-      <c r="M14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 3</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="M15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="M16" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion</v>
-      </c>
-      <c r="M17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="7"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="7"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="7"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:K2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K21" sqref="K21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="51.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="255.42578125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="255.42578125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="79" style="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>10</v>
       </c>
       <c r="J2" s="42"/>
       <c r="K2" s="42"/>
@@ -3732,34 +1643,26 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="21">
-        <v>12</v>
-      </c>
+      <c r="C3" s="60">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K3" s="12" t="str">
-        <f t="shared" ref="K3:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
-      </c>
-      <c r="L3" s="12" t="str">
-        <f t="shared" ref="L3:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
+        <v>268</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>35</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3769,34 +1672,26 @@
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10">
-        <v>10</v>
-      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
-      </c>
-      <c r="L4" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
+        <v>269</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>35</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3806,28 +1701,28 @@
       <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="L5" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
+        <v>270</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3837,30 +1732,28 @@
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8"/>
       <c r="J6" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="L6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>271</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>35</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3870,366 +1763,187 @@
       <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos</v>
-      </c>
-      <c r="L7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>35</v>
+        <v>272</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="21">
-        <v>30</v>
-      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
-      </c>
-      <c r="L8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
+        <v>273</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
-        <v>5</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
-      </c>
-      <c r="L9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="L10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
+      <c r="A11" s="8"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="L11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos</v>
-      </c>
-      <c r="L12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>36</v>
-      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="21">
-        <v>2</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
-      </c>
-      <c r="L13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="A13" s="8"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
-        <v>3</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
-      </c>
-      <c r="L14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="L15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="A15" s="8"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="L16" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
+      <c r="A17" s="8"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos</v>
-      </c>
-      <c r="L17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="7"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="27"/>
       <c r="K18" s="12"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="7"/>
       <c r="K19" s="12"/>
       <c r="L19" s="7"/>
@@ -4238,12 +1952,13 @@
     <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="7"/>
       <c r="K20" s="12"/>
       <c r="L20" s="7"/>
@@ -4252,12 +1967,13 @@
     <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="5"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="7"/>
       <c r="K21" s="12"/>
       <c r="L21" s="7"/>
@@ -4266,12 +1982,13 @@
     <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="7"/>
       <c r="K22" s="12"/>
       <c r="L22" s="7"/>
@@ -4280,146 +1997,149 @@
     <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="7"/>
       <c r="K23" s="12"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="L24" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>184</v>
-      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="7"/>
       <c r="K25" s="12"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="7"/>
+    <row r="26" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="27"/>
       <c r="K26" s="12"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="8"/>
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="7"/>
       <c r="K34" s="12"/>
       <c r="L34" s="7"/>
@@ -4427,13 +2147,13 @@
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="7"/>
       <c r="K35" s="12"/>
       <c r="L35" s="7"/>
@@ -4441,41 +2161,49 @@
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="7"/>
       <c r="K36" s="12"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="7"/>
       <c r="K38" s="12"/>
       <c r="L38" s="7"/>
@@ -4483,13 +2211,13 @@
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="7"/>
       <c r="K39" s="12"/>
       <c r="L39" s="7"/>
@@ -4497,2159 +2225,139 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="8"/>
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="8"/>
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="10"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="8"/>
       <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="8"/>
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="8"/>
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="10"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="8"/>
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="10"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="8"/>
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="10"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="10"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="8"/>
       <c r="J50" s="7"/>
       <c r="K50" s="12"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="K1:K2"/>
+  <mergeCells count="6">
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="4.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="51.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="255.42578125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="255.42578125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="79" style="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="21">
-        <v>12</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L3" s="12" t="str">
-        <f t="shared" ref="L3:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 12</v>
-      </c>
-      <c r="M3" s="12" t="str">
-        <f t="shared" ref="M3:M17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 12</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 10</v>
-      </c>
-      <c r="M4" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 10</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="M5" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="M6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV</v>
-      </c>
-      <c r="M7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="21">
-        <v>30</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 30</v>
-      </c>
-      <c r="M8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 30</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10">
-        <v>5</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 5</v>
-      </c>
-      <c r="M9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 5</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="M10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="M11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Sub Estatos CAV</v>
-      </c>
-      <c r="M12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="21">
-        <v>2</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 2</v>
-      </c>
-      <c r="M13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 2</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10">
-        <v>3</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 3</v>
-      </c>
-      <c r="M14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 3</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="M15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="M16" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Sub Estatos CAV</v>
-      </c>
-      <c r="M17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="M23" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="7"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="7"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="7"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:K2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="51.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="255.42578125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="255.42578125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="79" style="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="21">
-        <v>12</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Bien Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Bien Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 12</v>
-      </c>
-      <c r="L3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Bien Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Bien Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 12</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10">
-        <v>10</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K4" s="12" t="str">
-        <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Bien Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Bien Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 10</v>
-      </c>
-      <c r="L4" s="12" t="str">
-        <f t="shared" ref="L4:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Bien Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Bien Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 10</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, hacer clic en enlace Bien Descripción para modificar registro</v>
-      </c>
-      <c r="L5" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en enlace Bien Descripción para modificar registro</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
-      </c>
-      <c r="L6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien</v>
-      </c>
-      <c r="L7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="21">
-        <v>30</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 30</v>
-      </c>
-      <c r="L8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 30</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
-        <v>5</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 5</v>
-      </c>
-      <c r="L9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 5</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, hacer clic en enlace Bien Descripción para modificar registro</v>
-      </c>
-      <c r="L10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en enlace Bien Descripción para modificar registro</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
-      </c>
-      <c r="L11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien</v>
-      </c>
-      <c r="L12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="21">
-        <v>2</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 2</v>
-      </c>
-      <c r="L13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 2</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
-        <v>3</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 3</v>
-      </c>
-      <c r="L14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 3</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, hacer clic en enlace Bien Descripción para modificar registro</v>
-      </c>
-      <c r="L15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en enlace Bien Descripción para modificar registro</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
-      </c>
-      <c r="L16" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien</v>
-      </c>
-      <c r="L17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="L24" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-    </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-    </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-    </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-    </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="7"/>
-    </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6657,9 +2365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="28" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD21" sqref="AD21"/>
+      <selection pane="topRight" activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6689,11 +2397,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>208</v>
+      <c r="A1" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>122</v>
       </c>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
@@ -6703,35 +2411,35 @@
       <c r="H1" s="46"/>
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
-      <c r="K1" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="L1" s="49"/>
+      <c r="K1" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="54"/>
       <c r="M1" s="47"/>
-      <c r="N1" s="50" t="s">
-        <v>223</v>
+      <c r="N1" s="52" t="s">
+        <v>137</v>
       </c>
       <c r="O1" s="51"/>
-      <c r="P1" s="54" t="s">
-        <v>224</v>
+      <c r="P1" s="50" t="s">
+        <v>138</v>
       </c>
       <c r="Q1" s="51"/>
-      <c r="R1" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
+      <c r="R1" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
       <c r="V1" s="51"/>
       <c r="W1" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="X1" s="50" t="s">
-        <v>231</v>
+        <v>144</v>
+      </c>
+      <c r="X1" s="52" t="s">
+        <v>145</v>
       </c>
       <c r="Y1" s="51"/>
-      <c r="Z1" s="50" t="s">
-        <v>234</v>
+      <c r="Z1" s="52" t="s">
+        <v>148</v>
       </c>
       <c r="AA1" s="51"/>
       <c r="AB1" s="41" t="s">
@@ -6749,32 +2457,32 @@
     </row>
     <row r="2" spans="1:31" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
-      <c r="B2" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>213</v>
+      <c r="B2" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>127</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>216</v>
+        <v>128</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>130</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>218</v>
+        <v>131</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>132</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>220</v>
+        <v>133</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>134</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>7</v>
@@ -6782,45 +2490,45 @@
       <c r="L2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="33" t="s">
-        <v>222</v>
+      <c r="M2" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>225</v>
+      <c r="Q2" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>139</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="T2" s="38" t="s">
-        <v>227</v>
+        <v>140</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>141</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="V2" s="35" t="s">
-        <v>229</v>
+        <v>142</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>143</v>
       </c>
       <c r="W2" s="42"/>
       <c r="X2" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y2" s="34" t="s">
-        <v>233</v>
+        <v>146</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="34"/>
+      <c r="AA2" s="33"/>
       <c r="AB2" s="42"/>
       <c r="AC2" s="42"/>
       <c r="AD2" s="42"/>
@@ -6863,16 +2571,16 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="7" t="s">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>274</v>
+        <v>174</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6910,16 +2618,16 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="7" t="s">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6957,16 +2665,16 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="8"/>
       <c r="AB5" s="7" t="s">
-        <v>254</v>
+        <v>154</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="AD5" s="7" t="s">
-        <v>278</v>
+        <v>178</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7004,16 +2712,16 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="7" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -7049,13 +2757,13 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="7" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="AC7" s="12" t="s">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="AD7" s="7" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="AE7" s="27" t="s">
         <v>36</v>
@@ -7088,16 +2796,16 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="7" t="s">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="AC8" s="12" t="s">
-        <v>286</v>
+        <v>186</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>284</v>
+        <v>184</v>
       </c>
       <c r="AE8" s="7" t="s">
-        <v>285</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7127,16 +2835,16 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="7" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="AC9" s="12" t="s">
-        <v>287</v>
+        <v>187</v>
       </c>
       <c r="AD9" s="7" t="s">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="AE9" s="7" t="s">
-        <v>289</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -7168,16 +2876,16 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="7" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="AC10" s="12" t="s">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="AD10" s="7" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="AE10" s="7" t="s">
-        <v>292</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -7205,16 +2913,16 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="7" t="s">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="AC11" s="12" t="s">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="AD11" s="7" t="s">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="AE11" s="7" t="s">
-        <v>295</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -7242,16 +2950,16 @@
       <c r="Z12" s="25"/>
       <c r="AA12" s="24"/>
       <c r="AB12" s="7" t="s">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="AC12" s="12" t="s">
-        <v>296</v>
+        <v>196</v>
       </c>
       <c r="AD12" s="7" t="s">
-        <v>297</v>
+        <v>197</v>
       </c>
       <c r="AE12" s="27" t="s">
-        <v>298</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -7278,16 +2986,16 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="7" t="s">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="AC13" s="12" t="s">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="AD13" s="7" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AE13" s="7" t="s">
-        <v>301</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -7314,16 +3022,16 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="7" t="s">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="AC14" s="12" t="s">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="AD14" s="7" t="s">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="AE14" s="7" t="s">
-        <v>304</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -7352,16 +3060,16 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="7" t="s">
-        <v>264</v>
+        <v>164</v>
       </c>
       <c r="AC15" s="12" t="s">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="AD15" s="7" t="s">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="AE15" s="7" t="s">
-        <v>307</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -7390,23 +3098,23 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="7" t="s">
-        <v>265</v>
+        <v>165</v>
       </c>
       <c r="AC16" s="12" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="AD16" s="7" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="AE16" s="7" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>1</v>
       </c>
-      <c r="J17" s="37"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="M17" s="24"/>
@@ -7429,16 +3137,16 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="24"/>
       <c r="AB17" s="7" t="s">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="AC17" s="12" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="AD17" s="7" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="AE17" s="27" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7466,16 +3174,16 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="7" t="s">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="AC18" s="12" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="AD18" s="7" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="AE18" s="27" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7511,16 +3219,16 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="7" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="AC19" s="12" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="AD19" s="7" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="AE19" s="27" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7556,13 +3264,13 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="7" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
       <c r="AC20" s="12" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="AD20" s="7" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="AE20" s="7" t="s">
         <v>68</v>
@@ -7601,13 +3309,13 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="7" t="s">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="AC21" s="12" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="AD21" s="7" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="AE21" s="7" t="s">
         <v>68</v>
@@ -7742,7 +3450,7 @@
       <c r="AA25" s="8"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="12"/>
-      <c r="AD25" s="32"/>
+      <c r="AD25" s="31"/>
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7843,16 +3551,16 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="7" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="AC29" s="12" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="AD29" s="7" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="AE29" s="7" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -7876,16 +3584,16 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="7" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="AC30" s="12" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="AE30" s="7" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -8351,11 +4059,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="K1:M1"/>
@@ -8364,6 +4067,11 @@
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="W1:W2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8374,7 +4082,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -8408,44 +4116,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>340</v>
+        <v>237</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>240</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8547,7 +4255,7 @@
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="32"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8700,7 +4408,7 @@
       <c r="E1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="54" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="47"/>
@@ -9334,16 +5042,16 @@
       <c r="I22" s="9"/>
       <c r="J22" s="10"/>
       <c r="K22" s="7" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>187</v>
+        <v>114</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9753,7 +5461,7 @@
       </c>
       <c r="C1" s="46"/>
       <c r="D1" s="47"/>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="49" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="46"/>
@@ -10388,16 +6096,16 @@
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
       <c r="N20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="O20" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="P20" s="32" t="s">
-        <v>189</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10928,7 +6636,7 @@
       <c r="E1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="54" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="47"/>
@@ -11618,16 +7326,16 @@
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
       <c r="L24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="M24" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="N24" s="32" t="s">
-        <v>191</v>
+      <c r="N24" s="31" t="s">
+        <v>119</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12034,7 +7742,7 @@
       <c r="E1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="54" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="47"/>
@@ -12830,16 +8538,16 @@
       <c r="O22" s="9"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="S22" s="32" t="s">
-        <v>193</v>
+        <v>120</v>
+      </c>
+      <c r="S22" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13417,72 +9125,72 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>344</v>
+      <c r="A6" s="40" t="s">
+        <v>244</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>358</v>
+        <v>257</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13564,302 +9272,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="51.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="79" style="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="27"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="27"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="32"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/Procesos Financieros.xlsx
+++ b/Casos Cartera/Procesos Financieros.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Todos" sheetId="15" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="197">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -399,98 +399,10 @@
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Formas de pago, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Recaudación</t>
-  </si>
-  <si>
     <t>Exportar
 Excel</t>
   </si>
   <si>
-    <t>ID Operación
-(Trabajar con remesas)</t>
-  </si>
-  <si>
-    <t>Informacion
-General (Cliente)</t>
-  </si>
-  <si>
-    <t>Informacion del
-Bien (Comerciales)</t>
-  </si>
-  <si>
-    <t>Contabilidad</t>
-  </si>
-  <si>
-    <t>Imprimir
-certificado</t>
-  </si>
-  <si>
-    <t>Documentos
-asociados</t>
-  </si>
-  <si>
-    <t>Pasar a Judicial</t>
-  </si>
-  <si>
-    <t>Pasar a pre
-Judicial</t>
-  </si>
-  <si>
-    <t>Bloquear RUT</t>
-  </si>
-  <si>
-    <t>Eliminar Crédito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrollo del Crédito
-</t>
-  </si>
-  <si>
-    <t>Ver comisiones</t>
-  </si>
-  <si>
-    <t>Seguimiento</t>
-  </si>
-  <si>
-    <t>Cheques</t>
-  </si>
-  <si>
-    <t>Comprobante
-PDF</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Comprobante
-de pago</t>
-  </si>
-  <si>
-    <t>Anular</t>
-  </si>
-  <si>
-    <t>Forma de pago
-(Consulta)</t>
-  </si>
-  <si>
-    <t>Geolocalización</t>
-  </si>
-  <si>
-    <t>Proceso</t>
-  </si>
-  <si>
-    <t>TER</t>
-  </si>
-  <si>
-    <t>CRE</t>
-  </si>
-  <si>
-    <t>Legal</t>
-  </si>
-  <si>
     <t>TC_Cartera_ProcesoRemesa_ConsolidadoError</t>
   </si>
   <si>
@@ -498,228 +410,6 @@
   </si>
   <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Procesos - sub modulo Tabajar con remesas, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios.</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_InformacionGeneral</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Contabilidad</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Documentos</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_BloquearRut</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_EliminarCredito</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Modificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_ExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Comisiones</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_SeguimientoAgregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_SeguimientoEliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Geolocalizacion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_ComprobantePDF</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_ComprobantePago</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Anular</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_FormaPago</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_TER</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_CRE</t>
-  </si>
-  <si>
-    <t>Modificación de datos y consulta de mapa de manera exitosa</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, modificar datos de la sección información general con la opción datos clientes, luego de esto, modificar datos de la sección información del bien con la opción datos comerciales. Finalizando con consulta a la pestaña geolocalización para visualizar mapa.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, modificar datos de la sección contabilidad con la opción datos clientes, luego de esto, hacer clic en boton imprimir certificado.</t>
-  </si>
-  <si>
-    <t>Modificación de datos e impresión de certificado de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, modificando datos de la pestaña general sección contabilidad e imprimir certiticado</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, modificando datos de la pestaña general sección información general e información del bien</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_ChequeModificar</t>
-  </si>
-  <si>
-    <t>Enlace Número</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_ChequeNumero</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, hacer clic en boton documentos asociados para visualizar y descargar documentos, luego, hacer clic en boton pasar a judicial y hacer clic en boton normalizar estado</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción General, visualizar y descargar documentos asociados, finalizando con pasar a judicial</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción General,pasar registro seleccionado a pre judicial, finalizando con bloqueo de RUT</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción General, eliminando credito seleccionado</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, hacer clic en boton pasar a pre judicial y hacer clic en boton normalizar estado, finalizando con el bloqueo de RUT haciendo clic en boton bloquear RUT</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, hacer clic en boton eliminar crédito.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Desarrollo del crédito, hacer clic en icono editar, cambiar datos del registro, finalizar con exportar archivo excel</t>
-  </si>
-  <si>
-    <t>Registro modificado y archivo exportado de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Desarrollo del crédito, seleccionando registro para modificiar y exportar archivo excel</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Desarrollo del crédito, seleccionando exportar archivo excel y consultar las comisiones</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Desarrollo del crédito, exportar archivo excel, hacer clic en boton ver comisiones</t>
-  </si>
-  <si>
-    <t>Archivo exportado y cosulta de comisiones de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Desarrollo del crédito, seleccionando registro para modificiar, se exporta archivo excel y se consultan las comisiones</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Desarrollo del crédito, hacer clic en icono editar, cambiar datos del registro, exportar archivo excel y hacer clic en boton ver comisiones para consultar las mismas</t>
-  </si>
-  <si>
-    <t>Registro modificado, archivo exportado y consulta de comisiones de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Seguimiento, agregando nuevo registro</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Desarrollo del crédito, hacer clic boton agregar, llenar formulario con datos correspondientes, hacer clic en boton confirmar</t>
-  </si>
-  <si>
-    <t>Ingreso de nuevo registro de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Seguimiento, eliminando registro exitente</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Desarrollo del crédito, hacer clic boton eliminar, hacer clic en boton confirmar</t>
-  </si>
-  <si>
-    <t>Eliminacion de registro de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Geolocalización, consultando ubicación en el mapa</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Geolocalización, consultar ubicación en mapa y comparar con google maps</t>
-  </si>
-  <si>
-    <t>Consulta de ubicación de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Recaudación, consultando comprobante de pago</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Recaudación, hacer clic en boton ver comprobante de pago</t>
-  </si>
-  <si>
-    <t>Consulta de comprobante de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Recaudación, para consultar comprobante de pago al acceder a traves del enlace ID.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Recaudación, hacer clic en enlace ID, hacer clic en boton comprobante de pago.</t>
-  </si>
-  <si>
-    <t>Se debe visualizar el mismo comprobante del casos anterior</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Recaudación, para anular comprobante de pago al acceder a traves del enlace ID.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Recaudación, hacer clic en enlace ID, hacer clic en boton anular.</t>
-  </si>
-  <si>
-    <t>Sistema solo permite anular la  la última recaudación del crédito</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Recaudación, para consultar de pago al acceder a traves del enlace ID.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Recaudación, hacer clic en enlace ID, hacer clic en pestaña forma de pago</t>
-  </si>
-  <si>
-    <t>Visualizar datos de forma de pago</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Proceso, para eliminar registro TER</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Proceso, para eliminar registro CRE</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Proceso, hacer clic en enlace ID Proceso, hacer clic en boton eliminar</t>
-  </si>
-  <si>
-    <t>Proceso eliminado exitosamente</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Cheque, para modificar cheque</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Cheque, para modificar registro cheque a traves de enlace Numero</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Cheques, hacer clic en boton editar, editar datos correspondientes del cheque</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Cheques, hacer clic en enlace Numero, hacer clic en boton modificar, editar datos correspondientes del registro de cheques, hacer clic en boton confirmar</t>
-  </si>
-  <si>
-    <t>Visualización, descarga de documentos y pasar a judicial de manera exitosa. El registro seleccionado debe tener 150 dias de en mora</t>
-  </si>
-  <si>
-    <t>Registro pasado a pre judicial, el registro seleccinado debe tener 91 dias en mora y bloqueo de Rut de manera exitosa</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_PreJudicial</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción General,pasar registro seleccionado a pre judicial que no ha cumplido plazo de 90 dias en mora</t>
   </si>
   <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, hacer clic en boton pasar a pre judicial.</t>
@@ -921,6 +611,21 @@
   </si>
   <si>
     <t>Sistema emite mensaje indicando Solo se pueden imputar Tipo de Proceso de creación directa</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFAlzamiento_Prepagado</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFAlzamiento_Extinto</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFAlzamiento_LeasingError</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFAlzamiento_Procesado</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFAlzamiento_NroOperacionError</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1145,9 +850,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1161,29 +863,26 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1197,9 +896,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1207,25 +903,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1238,19 +922,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1558,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="10" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -1567,7 +1238,7 @@
   <cols>
     <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="37" customWidth="1"/>
     <col min="4" max="8" width="6.140625" style="13" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="54.28515625" style="6" customWidth="1"/>
@@ -1577,64 +1248,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" s="46" t="s">
+      <c r="A1" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="41" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="41" t="s">
+      <c r="L1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>264</v>
+      <c r="C2" s="34" t="s">
+        <v>164</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>265</v>
+        <v>165</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="34" t="s">
+      <c r="G2" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1643,7 +1314,7 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="35">
         <v>1</v>
       </c>
       <c r="D3" s="5"/>
@@ -1653,16 +1324,16 @@
       <c r="H3" s="5"/>
       <c r="I3" s="8"/>
       <c r="J3" s="7" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>274</v>
+        <v>174</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>276</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1672,7 +1343,7 @@
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="5">
         <v>1</v>
       </c>
@@ -1682,16 +1353,16 @@
       <c r="H4" s="5"/>
       <c r="I4" s="8"/>
       <c r="J4" s="7" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1701,7 +1372,7 @@
       <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
         <v>1</v>
@@ -1713,16 +1384,16 @@
       <c r="H5" s="5"/>
       <c r="I5" s="8"/>
       <c r="J5" s="7" t="s">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>278</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>284</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1732,7 +1403,7 @@
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1744,16 +1415,16 @@
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="7" t="s">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>285</v>
+        <v>185</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>286</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1763,7 +1434,7 @@
       <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1773,16 +1444,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>287</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>289</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1792,7 +1463,7 @@
       <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1800,22 +1471,22 @@
       <c r="H8" s="5"/>
       <c r="I8" s="8"/>
       <c r="J8" s="7" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="60"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1827,10 +1498,10 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="61"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
@@ -1844,7 +1515,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="C11" s="60"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1856,7 +1527,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="60"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1867,7 +1538,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="C13" s="60"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1878,7 +1549,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="C14" s="60"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1889,7 +1560,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="C15" s="60"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1900,7 +1571,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="C16" s="60"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1911,7 +1582,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="C17" s="60"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1920,24 +1591,24 @@
       <c r="I17" s="8"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="C18" s="61"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="27"/>
+      <c r="J18" s="26"/>
       <c r="K18" s="12"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="27"/>
+      <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="60"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1952,7 +1623,7 @@
     <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="60"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1967,7 +1638,7 @@
     <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="60"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1982,7 +1653,7 @@
     <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="60"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1997,7 +1668,7 @@
     <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="60"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2012,7 +1683,7 @@
     <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="60"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -2027,7 +1698,7 @@
     <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="60"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -2039,24 +1710,24 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="25"/>
-      <c r="C26" s="61"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="27"/>
+      <c r="J26" s="26"/>
       <c r="K26" s="12"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="C27" s="60"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -2067,7 +1738,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="C28" s="60"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -2078,7 +1749,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="C29" s="60"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -2089,7 +1760,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="C30" s="60"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -2100,7 +1771,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="C31" s="60"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -2111,7 +1782,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="C32" s="60"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -2122,7 +1793,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="C33" s="60"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -2133,7 +1804,7 @@
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="C34" s="60"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -2147,7 +1818,7 @@
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="C35" s="60"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -2161,7 +1832,7 @@
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="C36" s="60"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -2175,7 +1846,7 @@
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="C37" s="60"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -2183,13 +1854,13 @@
       <c r="H37" s="5"/>
       <c r="I37" s="8"/>
       <c r="J37" s="7" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="L37" s="31" t="s">
-        <v>151</v>
+        <v>124</v>
+      </c>
+      <c r="L37" s="30" t="s">
+        <v>125</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>112</v>
@@ -2197,7 +1868,7 @@
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="C38" s="60"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -2211,7 +1882,7 @@
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="C39" s="60"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -2225,7 +1896,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="C40" s="60"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -2236,7 +1907,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="C41" s="60"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2247,7 +1918,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="C42" s="60"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -2258,7 +1929,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="C43" s="60"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -2269,7 +1940,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="C44" s="60"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -2280,7 +1951,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="C45" s="60"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -2291,7 +1962,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="C46" s="60"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -2302,7 +1973,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
-      <c r="C47" s="60"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -2313,7 +1984,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
-      <c r="C48" s="60"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -2324,7 +1995,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
-      <c r="C49" s="60"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -2335,7 +2006,7 @@
     </row>
     <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
-      <c r="C50" s="60"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -2363,1715 +2034,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="28" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="9" width="4.5703125" customWidth="1"/>
-    <col min="10" max="10" width="4" style="3" customWidth="1"/>
-    <col min="11" max="12" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="5" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="13" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="3" customWidth="1"/>
-    <col min="18" max="21" width="5" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="5" style="6" customWidth="1"/>
-    <col min="24" max="24" width="5" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" style="3" customWidth="1"/>
-    <col min="26" max="26" width="5" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" style="3" customWidth="1"/>
-    <col min="28" max="28" width="49.42578125" style="6" customWidth="1"/>
-    <col min="29" max="29" width="255.42578125" style="12" customWidth="1"/>
-    <col min="30" max="30" width="255.42578125" style="7" customWidth="1"/>
-    <col min="31" max="31" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="255.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="X1" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="41" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="41" t="s">
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="C29" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D29" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="19" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="B30" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="C30" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="D30" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="R2" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="T2" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="W2" s="42"/>
-      <c r="X2" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y2" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-    </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="16">
-        <v>1</v>
-      </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC3" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC5" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE5" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC6" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="AD6" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE6" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="24">
-        <v>1</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC7" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD7" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE7" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="5">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC8" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE8" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8">
-        <v>1</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC9" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD9" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE9" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8">
-        <v>1</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC10" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE10" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="5">
-        <v>1</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC11" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE11" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="24">
-        <v>1</v>
-      </c>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC12" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD12" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE12" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="16">
-        <v>1</v>
-      </c>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC13" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE13" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="5">
-        <v>1</v>
-      </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC14" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE14" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5">
-        <v>1</v>
-      </c>
-      <c r="T15" s="5">
-        <v>1</v>
-      </c>
-      <c r="U15" s="5"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC15" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD15" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE15" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5">
-        <v>1</v>
-      </c>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5">
-        <v>1</v>
-      </c>
-      <c r="V16" s="8"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC16" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE16" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="J17" s="36"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25">
-        <v>1</v>
-      </c>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="24">
-        <v>1</v>
-      </c>
-      <c r="W17" s="26"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC17" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE17" s="27" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>1</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC18" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD18" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE18" s="27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC19" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE19" s="27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC20" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE20" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>1</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="8">
-        <v>1</v>
-      </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC21" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD21" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AE21" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-    </row>
-    <row r="23" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-    </row>
-    <row r="24" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-    </row>
-    <row r="25" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="7"/>
-    </row>
-    <row r="26" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="7"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="7"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC29" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD29" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE29" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC30" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD30" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE30" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="7"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="7"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="7"/>
-    </row>
-    <row r="34" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-    </row>
-    <row r="35" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-    </row>
-    <row r="36" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="7"/>
-      <c r="AE36" s="7"/>
-    </row>
-    <row r="37" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="7"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="7"/>
-    </row>
-    <row r="38" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="7"/>
-      <c r="AE38" s="7"/>
-    </row>
-    <row r="39" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="7"/>
-      <c r="AE39" s="7"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="7"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="7"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="7"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="7"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="7"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="7"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="8"/>
-      <c r="AB46" s="7"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="7"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="7"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="7"/>
-    </row>
-    <row r="50" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="12"/>
-      <c r="AD50" s="7"/>
-      <c r="AE50" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="W1:W2"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4095,65 +2344,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>238</v>
+        <v>138</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>239</v>
+        <v>139</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>240</v>
+        <v>137</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4162,11 +2411,11 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
       <c r="B7" s="12"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -4186,11 +2435,11 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
       <c r="B12" s="12"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -4204,17 +2453,17 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+    <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="27"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="27"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -4255,7 +2504,7 @@
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="31"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4397,41 +2646,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="55" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="41" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="41" t="s">
+      <c r="M1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -4441,7 +2690,7 @@
       <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -4457,10 +2706,10 @@
       <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -4634,7 +2883,7 @@
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton Agregar para crear nuevo registro</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4803,7 +3052,7 @@
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton eliminar</v>
       </c>
-      <c r="N12" s="27" t="s">
+      <c r="N12" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4967,7 +3216,7 @@
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton modificar para editar registro</v>
       </c>
-      <c r="N17" s="27" t="s">
+      <c r="N17" s="26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5047,7 +3296,7 @@
       <c r="L22" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="M22" s="31" t="s">
+      <c r="M22" s="30" t="s">
         <v>115</v>
       </c>
       <c r="N22" s="7" t="s">
@@ -5453,44 +3702,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="49" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="58" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="41" t="s">
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="41" t="s">
+      <c r="P1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -5512,7 +3761,7 @@
       <c r="H2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="42"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="18" t="s">
         <v>20</v>
       </c>
@@ -5525,10 +3774,10 @@
       <c r="M2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -6044,7 +4293,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="10"/>
       <c r="N17" s="7"/>
-      <c r="Q17" s="27"/>
+      <c r="Q17" s="26"/>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -6101,7 +4350,7 @@
       <c r="O20" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="P20" s="31" t="s">
+      <c r="P20" s="30" t="s">
         <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
@@ -6625,42 +4874,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="55" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="41" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -6670,7 +4919,7 @@
       <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -6689,10 +4938,10 @@
       <c r="K2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -6871,7 +5120,7 @@
         <f t="shared" si="0"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7045,7 +5294,7 @@
         <f t="shared" si="0"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar</v>
       </c>
-      <c r="O12" s="27" t="s">
+      <c r="O12" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7214,7 +5463,7 @@
         <f t="shared" si="0"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar</v>
       </c>
-      <c r="O17" s="27" t="s">
+      <c r="O17" s="26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7331,7 +5580,7 @@
       <c r="M24" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="N24" s="31" t="s">
+      <c r="N24" s="30" t="s">
         <v>119</v>
       </c>
       <c r="O24" s="7" t="s">
@@ -7731,61 +5980,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="55" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="41" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="41" t="s">
+      <c r="S1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="18" t="s">
@@ -7815,10 +6064,10 @@
       <c r="P2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -8028,7 +6277,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para agregar registro  </v>
       </c>
-      <c r="T7" s="27" t="s">
+      <c r="T7" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8233,7 +6482,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para eliminar registro  </v>
       </c>
-      <c r="T12" s="27" t="s">
+      <c r="T12" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8433,7 +6682,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para modificar registro  </v>
       </c>
-      <c r="T17" s="27" t="s">
+      <c r="T17" s="26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8543,7 +6792,7 @@
       <c r="R22" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="S22" s="31" t="s">
+      <c r="S22" s="30" t="s">
         <v>121</v>
       </c>
       <c r="T22" s="7" t="s">
@@ -9104,93 +7353,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>249</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>242</v>
+        <v>142</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>252</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>243</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>254</v>
+        <v>154</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>244</v>
+      <c r="A6" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>258</v>
+        <v>157</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>261</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9216,7 +7465,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -9237,7 +7486,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="27"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -9272,7 +7521,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="31"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/Procesos Financieros.xlsx
+++ b/Casos Cartera/Procesos Financieros.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Todos" sheetId="15" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="189">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -64,62 +64,12 @@
     <t>Valor</t>
   </si>
   <si>
-    <t>Buzón de Voz</t>
-  </si>
-  <si>
-    <t>Vencimiento no le acomoda</t>
-  </si>
-  <si>
-    <t>PAC Inactivo</t>
-  </si>
-  <si>
-    <t>No contesta</t>
-  </si>
-  <si>
-    <t>Licencia Medica</t>
-  </si>
-  <si>
-    <t>Empresas Externas</t>
-  </si>
-  <si>
-    <t>Documentos Proveedor</t>
-  </si>
-  <si>
-    <t>Descripción
-(Formulario Documentos Proveedor)</t>
-  </si>
-  <si>
-    <t>Nombre corto</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>EPR</t>
-  </si>
-  <si>
-    <t>PRENDA : Cedula</t>
-  </si>
-  <si>
-    <t>Estados de seguimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enlace Descripción
-</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
     <t>Días</t>
   </si>
   <si>
-    <t>Anulación de Recaudación</t>
-  </si>
-  <si>
     <t>Feriados</t>
   </si>
   <si>
@@ -144,33 +94,6 @@
     <t>Registro eliminado exitosamente</t>
   </si>
   <si>
-    <t>TC_Cartera_Estados_AgregarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_EliminarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_ModificarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_Modificar</t>
-  </si>
-  <si>
     <t>TC_Cartera_Feriados_AgregarConsulta</t>
   </si>
   <si>
@@ -198,24 +121,6 @@
     <t>TC_Cartera_Feriados_Modificar</t>
   </si>
   <si>
-    <t>TC_Cartera_Estados_AgregarEnlaceDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_AgregarEnlaceDescripcionModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_EliminarEnlaceDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_ModificarEnlaceDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_EliminarEnlaceDescripcionModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_ModificarEnlaceDescripcionModificar</t>
-  </si>
-  <si>
     <t>TC_Cartera_Feriados_AgregarEnlaceDias</t>
   </si>
   <si>
@@ -234,51 +139,9 @@
     <t>TC_Cartera_Feriados_ModificarEnlaceDias</t>
   </si>
   <si>
-    <t>TC_Cartera_Empresa_Agregar</t>
-  </si>
-  <si>
     <t>Registro modificado exitosamente</t>
   </si>
   <si>
-    <t>TC_Cartera_Empresa_AgregarEnlaceDocumentos</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_AgregarConsultaDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_EliminarEnlaceDocumentos</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_EliminarConsultaDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_ModificarEnlaceDocumentos</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_ModificarConsultaDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_Modificar</t>
-  </si>
-  <si>
-    <t>Registro eliminar exitosamente</t>
-  </si>
-  <si>
-    <t>Enlace Descripción (Modificar y/o Eliminar registro)</t>
-  </si>
-  <si>
     <t>Formas de pago</t>
   </si>
   <si>
@@ -360,9 +223,6 @@
     <t>Tarjeta</t>
   </si>
   <si>
-    <t>TC_Cartera_Empresa_ConsolidadoError</t>
-  </si>
-  <si>
     <t>TC_Cartera_Feriados_ConsolidadoError</t>
   </si>
   <si>
@@ -370,21 +230,6 @@
   </si>
   <si>
     <t>Sistema debe de emitir mensaje de alerta correspondiente a cada situación</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_ConsolidadoError</t>
-  </si>
-  <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Estados, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Estados de seguimiento, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
-  </si>
-  <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Empresas Externas, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Empresas externas, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
   </si>
   <si>
     <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
@@ -412,55 +257,6 @@
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Procesos - sub modulo Tabajar con remesas, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios.</t>
   </si>
   <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, hacer clic en boton pasar a pre judicial.</t>
-  </si>
-  <si>
-    <t>Sistema debe emitir mensaje indicando que no se ha cumplido el plazo de 90dias en mora</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Judicial</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción General, seleccionando registro que no tiene estado pre judicial para pasar a judicial</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, hacer clic en boton pasar a judicial.</t>
-  </si>
-  <si>
-    <t>Sistema debe emitir mensaje indicando que no el registro no tiene estado pre judicial</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosAsignacion_Asignacion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosAsignacion_ReporteGrupos</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosAsignacion_ReporteEjecutivos</t>
-  </si>
-  <si>
-    <t>Validar la emisión de archivo en formato excel que posee registro de la asignación de ejecutivos</t>
-  </si>
-  <si>
-    <t>Validar la emisión de reporte de ejecutivos, ordenados por grupo</t>
-  </si>
-  <si>
-    <t>Validar la emisión de reporte de ejecutivos, considerando todas las opciones del combo asignacion</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Asignacion ejecutivos, hacer clic en boton asignar ejecutivos</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Asignacion ejecutivos, hacer clic en boton reporte por grupos</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Asignacion ejecutivos, seleccionar opcione del combo
-asignación, hacer clic en boton reporte ejecutivos</t>
-  </si>
-  <si>
-    <t>Reporte generado de manera exitosa</t>
-  </si>
-  <si>
     <t>TC_Cartera_ProcesosSeleccion_CartaGuia</t>
   </si>
   <si>
@@ -622,10 +418,187 @@
     <t>TC_Cartera_ProcesosFAlzamiento_LeasingError</t>
   </si>
   <si>
-    <t>TC_Cartera_ProcesosFAlzamiento_Procesado</t>
-  </si>
-  <si>
     <t>TC_Cartera_ProcesosFAlzamiento_NroOperacionError</t>
+  </si>
+  <si>
+    <t>Validar proceso de alzamiento leasing, indicando numero de operación asociado a credito leasing en estado prepagado.</t>
+  </si>
+  <si>
+    <t>Validar proceso de alzamiento leasing, indicando numero de operación asociado a credito leasing en estado extinto.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo Alzamiento Leasing, ingresar numero de operación asociado a crédito leasing que posea estado prepagado, seleccionar empresa, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Alzamiento realizado de manera exitosa</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo Alzamiento Leasing, ingresar numero de operación asociado a crédito leasing que posea estado extinto, seleccionar empresa, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Validar proceso de alzamiento leasing, indicando numero de operación asociado a credito leasing que no posee estado prepagado ni extinto.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo Alzamiento Leasing, ingresar numero de operación asociado a crédito leasing, seleccionar empresa, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFAlzamiento_CreditoError</t>
+  </si>
+  <si>
+    <t>Validar proceso de alzamiento leasing, indicando numero de operación que no esta asociado a credito leasing.</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando El tipo de crédito no es Leasing</t>
+  </si>
+  <si>
+    <t>Validar proceso de alzamiento leasing, indicando numero de operación asociado a credito leasingque ha sido procesado anteriormente.</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando que numero de proceso ha sido ingresado anteriormente</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando El número de operación ingresado no puede alzarse pues no es prendable.</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFForzar_Leasing</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFForzar_Convencional</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFForzar_Inteligente</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFForzar_CreditoEstado</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFForzar_CreditoProcesado</t>
+  </si>
+  <si>
+    <t>Validar proceso de forzar alzamiento, indicando numero de operación asociado a credito covencional en estado prepagado.</t>
+  </si>
+  <si>
+    <t>Validar proceso de forzar alzamiento, indicando numero de operación asociado a credito inteligente en estado extinto.</t>
+  </si>
+  <si>
+    <t>Validar proceso de forzar alzamiento, indicando numero de operación asociado a credito leasing en estado extinto.</t>
+  </si>
+  <si>
+    <t>Validar proceso de forzar alzamiento, indicando numero de operación que no posee en estado prepagado ni extinto.</t>
+  </si>
+  <si>
+    <t>Validar proceso de forzar alzamiento, indicando numero de operación que ha sido ingresado anteriormente.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo Forzar alzamiento, ingresar numero de operación asociado a crédito convencional que posea estado prepagado, seleccionar empresa, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo Forzar alzamiento, ingresar numero de operación asociado a crédito inteligente que posea estado extinto, seleccionar empresa, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Proceso de forzar alzamiento realizado exitosamente</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo Forzar alzamiento, ingresar numero de operación asociado a crédito leasing que posea estado extinto, seleccionar empresa, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo Forzar alzamiento, ingresar numero de operación que no posea estado prepagado ni extinto, seleccionar empresa, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo Forzar alzamiento, ingresar numero de operación que ha sigo ingresado anteriormente, seleccionar empresa, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando numero de operación no puede ser procesado</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando numero de operación ha sido procesado anteriormente</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesarFCambio_CambioPrenda</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesarFCambio_NoPrendable</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesarFCambio_ProcesoPrenda</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesarFCambio_ProcesoAlzamiento</t>
+  </si>
+  <si>
+    <t>Validar proceso de cambio de prenda, indicando numero de operación que cumple con las condiciones para realizar cambio.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo cambio de prenda, ingresar numero de operación que cumple con las condiciones para realizar cambio, ingresar Patente, Estado, Año, Vehículo, Serie, Modelo, la fecha de la solicitud y comentario, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Cambio de prenda y dejar en prenda el vehículo ingresado de manera exitosa</t>
+  </si>
+  <si>
+    <t>Validar proceso de cambio de prenda, indicando numero de operación asociado a crédito que no es prendable.</t>
+  </si>
+  <si>
+    <t>Validar proceso de cambio de prenda, indicando numero de operación asociado a crédito que no ha finalizado el proceso de prenda.</t>
+  </si>
+  <si>
+    <t>Validar proceso de cambio de prenda, indicando numero de operación asociado a crédito con proceso de alzamiento.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo cambio de prenda, ingresar numero de operación asociado a credito que no es prendable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando que no es posible realizar cambio de prenda</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo cambio de prenda, ingresar numero de operación asociado a credito que no ha finalizado el proceso de prenda.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo cambio de prenda, ingresar numero de operación asociado a credito con proceso de alzamiento.</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFForzarPrenda_Prenda</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFForzarPrenda_Refinanciamiento</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFForzarPrenda_Renogaciación</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFForzarPrenda_Procesado</t>
+  </si>
+  <si>
+    <t>Validar proceso de forzar prenda, indicando numero de operación que esta asociado a crédito que no es refinanciamiento o renegociacion</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo forzar prenda, ingresar numero de operación que esta asociado a credito el cual no es refinanciamiento o renegociación, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Registro ingresado queda en estado “Solicitar Prenda”</t>
+  </si>
+  <si>
+    <t>Validar proceso de forzar prenda, indicando numero de operación que esta asociado a crédito con tipo financiamiento refinanciamiento.</t>
+  </si>
+  <si>
+    <t>Validar proceso de forzar prenda, indicando numero de operación que esta asociado a crédito con tipo financiamiento renegociacion.</t>
+  </si>
+  <si>
+    <t>Validar proceso de forzar prenda, indicando numero de operación que ha sido procesado anteriormente.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo forzar prenda, ingresar numero de operación que esta asociado a credito con tipo financiamiento refinanciamiento, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo forzar prenda, ingresar numero de operación que esta asociado a credito con tipo financiamiento renegociación, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo forzar prenda, ingresar numero de operación que ha sido procesado anteriormente, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando que no es posible forzar prenda</t>
   </si>
 </sst>
 </file>
@@ -786,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -836,12 +809,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -902,14 +869,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -919,9 +883,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1230,15 +1191,15 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M9" sqref="M9"/>
+      <pane xSplit="10" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="35" customWidth="1"/>
     <col min="4" max="8" width="6.140625" style="13" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="54.28515625" style="6" customWidth="1"/>
@@ -1248,64 +1209,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="43" t="s">
+      <c r="A1" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="39" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="39" t="s">
+      <c r="L1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>164</v>
+      <c r="C2" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="31" t="s">
+      <c r="G2" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1314,7 +1275,7 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="33">
         <v>1</v>
       </c>
       <c r="D3" s="5"/>
@@ -1324,16 +1285,16 @@
       <c r="H3" s="5"/>
       <c r="I3" s="8"/>
       <c r="J3" s="7" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1343,7 +1304,7 @@
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="5">
         <v>1</v>
       </c>
@@ -1353,16 +1314,16 @@
       <c r="H4" s="5"/>
       <c r="I4" s="8"/>
       <c r="J4" s="7" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1372,7 +1333,7 @@
       <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
         <v>1</v>
@@ -1384,16 +1345,16 @@
       <c r="H5" s="5"/>
       <c r="I5" s="8"/>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1403,7 +1364,7 @@
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1415,16 +1376,16 @@
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="7" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1434,7 +1395,7 @@
       <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1444,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1463,7 +1424,7 @@
       <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1471,22 +1432,22 @@
       <c r="H8" s="5"/>
       <c r="I8" s="8"/>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="35"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1498,16 +1459,16 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="24"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="L10" s="7"/>
@@ -1515,7 +1476,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="C11" s="35"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1526,8 +1487,8 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1538,7 +1499,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="C13" s="35"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1549,7 +1510,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="C14" s="35"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1560,7 +1521,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="C15" s="35"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1571,7 +1532,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="C16" s="35"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1582,7 +1543,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="C17" s="35"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1591,24 +1552,24 @@
       <c r="I17" s="8"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="26"/>
+    <row r="18" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="12"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="26"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="35"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1623,7 +1584,7 @@
     <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="35"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1638,7 +1599,7 @@
     <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="35"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1653,7 +1614,7 @@
     <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="35"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1668,7 +1629,7 @@
     <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="35"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1683,7 +1644,7 @@
     <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="35"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1698,7 +1659,7 @@
     <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="35"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1710,24 +1671,24 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="26"/>
+    <row r="26" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="12"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="C27" s="35"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1738,7 +1699,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="C28" s="35"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1749,7 +1710,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="C29" s="35"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1760,7 +1721,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="C30" s="35"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1771,7 +1732,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="C31" s="35"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1782,7 +1743,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="C32" s="35"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1793,7 +1754,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="C33" s="35"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1804,7 +1765,7 @@
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="C34" s="35"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -1818,7 +1779,7 @@
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="C35" s="35"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -1832,7 +1793,7 @@
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="C36" s="35"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -1846,7 +1807,7 @@
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="C37" s="35"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -1854,21 +1815,21 @@
       <c r="H37" s="5"/>
       <c r="I37" s="8"/>
       <c r="J37" s="7" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="L37" s="30" t="s">
-        <v>125</v>
+        <v>73</v>
+      </c>
+      <c r="L37" s="28" t="s">
+        <v>74</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="C38" s="35"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -1882,7 +1843,7 @@
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="C39" s="35"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -1896,7 +1857,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="C40" s="35"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -1907,7 +1868,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="C41" s="35"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -1918,7 +1879,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="C42" s="35"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -1929,7 +1890,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="C43" s="35"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -1940,7 +1901,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="C44" s="35"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -1951,7 +1912,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="C45" s="35"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -1962,7 +1923,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="C46" s="35"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -1973,7 +1934,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
-      <c r="C47" s="35"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -1984,7 +1945,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
-      <c r="C48" s="35"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -1995,7 +1956,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
-      <c r="C49" s="35"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -2006,7 +1967,7 @@
     </row>
     <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
-      <c r="C50" s="35"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -2036,78 +1997,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="255.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="141.28515625" style="12" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="109.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="26"/>
+        <v>128</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -2127,11 +2118,11 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="12"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="26"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -2145,23 +2136,23 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="26"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -2196,7 +2187,7 @@
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2213,26 +2204,9 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="C29" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="A30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -2332,90 +2306,106 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="101" style="12" customWidth="1"/>
-    <col min="3" max="3" width="160.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>140</v>
+        <v>149</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="26"/>
+      <c r="A6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -2435,11 +2425,11 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
       <c r="B12" s="12"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="26"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -2453,17 +2443,17 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
+    <row r="17" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -2504,7 +2494,7 @@
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2620,1052 +2610,297 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53" style="6" customWidth="1"/>
-    <col min="12" max="12" width="255.42578125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="255.42578125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="132.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="39" t="s">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="39" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Estados de seguimiento",IF(E3=1,", considerando la opcion exportar a excel",),IF(F3=1,", hacer clic en enlace descripcion para modificar registro",IF(G3=1,", hacer clic en enlace descripcion para eliminar registro","")),IF(H3=1,", realizando consulta con el uso del filtro ",IF(I3=1,", realizando consulta con el uso del filtro ","")),IF(H3=1,$H$2,IF(I3=1,$I$2,"")),IF(H3=1," con el dato ",IF(I3=1," con el dato ","")),IF(H3=1,J3,IF(I3=1,J3,"")))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para modificar registro, realizando consulta con el uso del filtro Descripción con el dato Anulación de Recaudación</v>
-      </c>
-      <c r="M3" s="7" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento",IF(B3=1,", hacer clic en boton Agregar para crear nuevo registro",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar para editar registro",""))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace descripcion para modificar registro",IF(G3=1,", hacer clic en enlace descripcion para eliminar registro","")),IF(H3=1,", finalizando con la consulta usando el filtro ",IF(I3=1,", finalizando con la consulta usando el filtro ","")),IF(H3=1,$H$2,IF(I3=1,$I$2,"")),IF(H3=1," con el dato ",IF(I3=1," con el dato ","")),IF(H3=1,J3,IF(I3=1,J3,"")))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton Agregar para crear nuevo registro, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta usando el filtro Descripción con el dato Anulación de Recaudación</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="10">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="12" t="str">
-        <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Estados de seguimiento",IF(E4=1,", considerando la opcion exportar a excel",),IF(F4=1,", hacer clic en enlace descripcion para modificar registro",IF(G4=1,", hacer clic en enlace descripcion para eliminar registro","")),IF(H4=1,", realizando consulta con el uso del filtro ",IF(I4=1,", realizando consulta con el uso del filtro ","")),IF(H4=1,$H$2,IF(I4=1,$I$2,"")),IF(H4=1," con el dato ",IF(I4=1," con el dato ","")),IF(H4=1,J4,IF(I4=1,J4,"")))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro, realizando consulta con el uso del filtro Días con el dato 10</v>
-      </c>
-      <c r="M4" s="7" t="str">
-        <f t="shared" ref="M4:M17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento",IF(B4=1,", hacer clic en boton Agregar para crear nuevo registro",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar para editar registro",""))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace descripcion para modificar registro",IF(G4=1,", hacer clic en enlace descripcion para eliminar registro","")),IF(H4=1,", finalizando con la consulta usando el filtro ",IF(I4=1,", finalizando con la consulta usando el filtro ","")),IF(H4=1,$H$2,IF(I4=1,$I$2,"")),IF(H4=1," con el dato ",IF(I4=1," con el dato ","")),IF(H4=1,J4,IF(I4=1,J4,"")))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton Agregar para crear nuevo registro, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para eliminar registro, finalizando con la consulta usando el filtro Días con el dato 10</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Estados de seguimiento, hacer clic en enlace descripcion para modificar registro, realizando consulta con el uso del filtro Descripción con el dato Buzón de Voz</v>
-      </c>
-      <c r="M5" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton Agregar para crear nuevo registro, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta usando el filtro Descripción con el dato Buzón de Voz</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro</v>
-      </c>
-      <c r="M6" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton Agregar para crear nuevo registro, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para eliminar registro</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Estados de seguimiento</v>
-      </c>
-      <c r="M7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton Agregar para crear nuevo registro</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para modificar registro, realizando consulta con el uso del filtro Descripción con el dato Licencia Medica</v>
-      </c>
-      <c r="M8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta usando el filtro Descripción con el dato Licencia Medica</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="10">
-        <v>5</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro, realizando consulta con el uso del filtro Días con el dato 5</v>
-      </c>
-      <c r="M9" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para eliminar registro, finalizando con la consulta usando el filtro Días con el dato 5</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Estados de seguimiento, hacer clic en enlace descripcion para modificar registro, realizando consulta con el uso del filtro Descripción con el dato No contesta</v>
-      </c>
-      <c r="M10" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton eliminar, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta usando el filtro Descripción con el dato No contesta</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro</v>
-      </c>
-      <c r="M11" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para eliminar registro</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Estados de seguimiento</v>
-      </c>
-      <c r="M12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton eliminar</v>
-      </c>
-      <c r="N12" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para modificar registro, realizando consulta con el uso del filtro Descripción con el dato PAC Inactivo</v>
-      </c>
-      <c r="M13" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton modificar para editar registro, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta usando el filtro Descripción con el dato PAC Inactivo</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="10">
-        <v>3</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro, realizando consulta con el uso del filtro Días con el dato 3</v>
-      </c>
-      <c r="M14" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton modificar para editar registro, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para eliminar registro, finalizando con la consulta usando el filtro Días con el dato 3</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9">
-        <v>1</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Estados de seguimiento, hacer clic en enlace descripcion para modificar registro, realizando consulta con el uso del filtro Descripción con el dato Vencimiento no le acomoda</v>
-      </c>
-      <c r="M15" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton modificar para editar registro, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta usando el filtro Descripción con el dato Vencimiento no le acomoda</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro</v>
-      </c>
-      <c r="M16" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton modificar para editar registro, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para eliminar registro</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Estados de seguimiento</v>
-      </c>
-      <c r="M17" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton modificar para editar registro</v>
-      </c>
-      <c r="N17" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="7"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="7"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="7"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
+    <row r="2" spans="1:16" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="P10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3673,1173 +2908,298 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="14" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="5" style="11" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="52" style="6" customWidth="1"/>
-    <col min="15" max="15" width="255.42578125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="255.42578125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="143.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="39" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="39" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="16">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-moduloEmpresas Externas",IF(E3=1," considerando enlace documentos proveedor para agregar nuevo registro",IF(F3=1," considerando enlace documentos proveedor para modificar registro",IF(G3=1," considerando enlace documentos proveedor para modificar registro",""))),IF(H3=1," y hacer clic en ",""),IF(H3=1,$H$2,""),IF(I3=1,", considerando la opcion exportar a excel",""),IF(J3=1,", finalizando con la consulta mediante el filtro ",IF(K3=1,", finalizando con la consulta mediante el filtro ",IF(L3=1,", finalizando con la consulta mediante el filtro ",""))),IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,""))),IF(J3=1," con el dato ",IF(K3=1," con el dato ",IF(L3=1," con el dato ",""))),IF(J3=1,M3,IF(K3=1,M3,IF(L3=1,M3,""))))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
-      </c>
-      <c r="P3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton modificar",IF(D3=1,", hacer clic en boton eliminar"))),IF(E3=1,", hacer clic en enlace documentos proveedor para agregar nuevo registro",IF(F3=1,", hacer clic en enlace documentos proveedor para modificar registro",IF(G3=1," , hacer clic en enlace documentos proveedor para modificar registro",""))),IF(H3=1," y hacer clic en ",""),IF(H3=1,$H$2,""),IF(I3=1,", hacer clic en boton exportar a excel",""),IF(J3=1,", finalizando con la consulta mediante el filtro ",IF(K3=1,", finalizando con la consulta mediante el filtro ",IF(L3=1,", finalizando con la consulta mediante el filtro ",""))),IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,""))),IF(J3=1," con el dato ",IF(K3=1," con el dato ",IF(L3=1," con el dato ",""))),IF(J3=1,M3,IF(K3=1,M3,IF(L3=1,M3,""))))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton agregar, hacer clic en enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="16">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" s="12" t="str">
-        <f t="shared" ref="O4:O14" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-moduloEmpresas Externas",IF(E4=1," considerando enlace documentos proveedor para agregar nuevo registro",IF(F4=1," considerando enlace documentos proveedor para modificar registro",IF(G4=1," considerando enlace documentos proveedor para modificar registro",""))),IF(H4=1," y hacer clic en ",""),IF(H4=1,$H$2,""),IF(I4=1,", considerando la opcion exportar a excel",""),IF(J4=1,", finalizando con la consulta mediante el filtro ",IF(K4=1,", finalizando con la consulta mediante el filtro ",IF(L4=1,", finalizando con la consulta mediante el filtro ",""))),IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,""))),IF(J4=1," con el dato ",IF(K4=1," con el dato ",IF(L4=1," con el dato ",""))),IF(J4=1,M4,IF(K4=1,M4,IF(L4=1,M4,""))))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
-      </c>
-      <c r="P4" s="12" t="str">
-        <f t="shared" ref="P4:P14" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton modificar",IF(D4=1,", hacer clic en boton eliminar"))),IF(E4=1,", hacer clic en enlace documentos proveedor para agregar nuevo registro",IF(F4=1,", hacer clic en enlace documentos proveedor para modificar registro",IF(G4=1," , hacer clic en enlace documentos proveedor para modificar registro",""))),IF(H4=1," y hacer clic en ",""),IF(H4=1,$H$2,""),IF(I4=1,", hacer clic en boton exportar a excel",""),IF(J4=1,", finalizando con la consulta mediante el filtro ",IF(K4=1,", finalizando con la consulta mediante el filtro ",IF(L4=1,", finalizando con la consulta mediante el filtro ",""))),IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,""))),IF(J4=1," con el dato ",IF(K4=1," con el dato ",IF(L4=1," con el dato ",""))),IF(J4=1,M4,IF(K4=1,M4,IF(L4=1,M4,""))))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton agregar, hacer clic en enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="16">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9">
-        <v>1</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para modificar registro, considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Descripción
-(Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
-      </c>
-      <c r="P5" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton agregar , hacer clic en enlace documentos proveedor para modificar registro, hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Descripción
-(Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-moduloEmpresas Externas</v>
-      </c>
-      <c r="P6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton agregar</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="16">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
-      </c>
-      <c r="P7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton modificar, hacer clic en enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="16">
-        <v>1</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9">
-        <v>1</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
-      </c>
-      <c r="P8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton modificar, hacer clic en enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="16">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9">
-        <v>1</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para modificar registro, considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Descripción
-(Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
-      </c>
-      <c r="P9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton modificar , hacer clic en enlace documentos proveedor para modificar registro, hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Descripción
-(Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="O10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-moduloEmpresas Externas</v>
-      </c>
-      <c r="P10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton modificar</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="16">
-        <v>1</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="O11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
-      </c>
-      <c r="P11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton eliminar, hacer clic en enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="16">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9">
-        <v>1</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
-      </c>
-      <c r="P12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton eliminar, hacer clic en enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="16">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9">
-        <v>1</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para modificar registro, considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Descripción
-(Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
-      </c>
-      <c r="P13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton eliminar , hacer clic en enlace documentos proveedor para modificar registro, hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Descripción
-(Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-moduloEmpresas Externas</v>
-      </c>
-      <c r="P14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton eliminar</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="5"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="5"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="5"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="7"/>
-      <c r="Q17" s="26"/>
-    </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-    </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-    </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-    </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-    </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-    </row>
-    <row r="35" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-    </row>
-    <row r="36" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-    </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-    </row>
-    <row r="38" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-    </row>
-    <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="7"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="7"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="7"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="7"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="7"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="7"/>
-    </row>
-    <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
+    <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
+  <mergeCells count="4">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4874,42 +3234,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="48" t="s">
+      <c r="F1" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="39" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -4919,7 +3279,7 @@
       <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -4927,21 +3287,21 @@
         <v>6</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -4968,7 +3328,7 @@
         <v>12</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="M3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Feriados",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Días para modificar registro",IF(G3=1,", hacer clic en enlace Días para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",IF(I3=1,", finalizando con la consulta mediante el filtro ",IF(J3=1,", finalizando con la consulta mediante el filtro ",""))),IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,""))),IF(H3=1," con el dato ",IF(I3=1," con el dato ",IF(J3=1," con el dato ",""))),IF(H3=1,K3,IF(I3=1,K3,IF(J3=1,K3,""))))</f>
@@ -4979,7 +3339,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 12</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5007,7 +3367,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M4" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Feriados",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Días para modificar registro",IF(G4=1,", hacer clic en enlace Días para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",IF(I4=1,", finalizando con la consulta mediante el filtro ",IF(J4=1,", finalizando con la consulta mediante el filtro ",""))),IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,""))),IF(H4=1," con el dato ",IF(I4=1," con el dato ",IF(J4=1," con el dato ",""))),IF(H4=1,K4,IF(I4=1,K4,IF(J4=1,K4,""))))</f>
@@ -5018,7 +3378,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 10</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5041,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="M5" s="12" t="str">
         <f t="shared" ref="M5:M17" si="1">CONCATENATE("Validar funcionalidad ",IF(B5=1,$B$2,IF(C5=1,$C$2,IF(D5=1,$D$2)))," del modulo Maestro, sub-modulo Feriados",IF(E5=1,", considerando la opcion exportar a excel",""),IF(F5=1,", hacer clic en enlace Días para modificar registro",IF(G5=1,", hacer clic en enlace Días para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",IF(I5=1,", finalizando con la consulta mediante el filtro ",IF(J5=1,", finalizando con la consulta mediante el filtro ",""))),IF(H5=1,$H$2,IF(I5=1,$I$2,IF(J5=1,$J$2,""))),IF(H5=1," con el dato ",IF(I5=1," con el dato ",IF(J5=1," con el dato ",""))),IF(H5=1,K5,IF(I5=1,K5,IF(J5=1,K5,""))))</f>
@@ -5055,7 +3415,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Día feriado</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5079,7 +3439,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
       <c r="L6" s="7" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="M6" s="12" t="str">
         <f t="shared" si="1"/>
@@ -5090,7 +3450,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5110,7 +3470,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="10"/>
       <c r="L7" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M7" s="12" t="str">
         <f t="shared" si="1"/>
@@ -5120,8 +3480,8 @@
         <f t="shared" si="0"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar</v>
       </c>
-      <c r="O7" s="26" t="s">
-        <v>35</v>
+      <c r="O7" s="24" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5148,7 +3508,7 @@
         <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M8" s="12" t="str">
         <f t="shared" si="1"/>
@@ -5159,7 +3519,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 30</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5186,7 +3546,7 @@
         <v>5</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M9" s="12" t="str">
         <f t="shared" si="1"/>
@@ -5197,7 +3557,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 5</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -5218,10 +3578,10 @@
         <v>1</v>
       </c>
       <c r="K10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="12" t="str">
         <f t="shared" si="1"/>
@@ -5232,7 +3592,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Feriado</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -5255,7 +3615,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M11" s="12" t="str">
         <f t="shared" si="1"/>
@@ -5266,7 +3626,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -5284,7 +3644,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="10"/>
       <c r="L12" s="7" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M12" s="12" t="str">
         <f t="shared" si="1"/>
@@ -5294,8 +3654,8 @@
         <f t="shared" si="0"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar</v>
       </c>
-      <c r="O12" s="26" t="s">
-        <v>36</v>
+      <c r="O12" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -5321,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="M13" s="12" t="str">
         <f t="shared" si="1"/>
@@ -5332,7 +3692,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 2</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -5358,7 +3718,7 @@
         <v>3</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="M14" s="12" t="str">
         <f t="shared" si="1"/>
@@ -5369,7 +3729,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 3</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -5389,10 +3749,10 @@
         <v>1</v>
       </c>
       <c r="K15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M15" s="12" t="str">
         <f t="shared" si="1"/>
@@ -5403,7 +3763,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Celebración</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -5425,7 +3785,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="10"/>
       <c r="L16" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M16" s="12" t="str">
         <f t="shared" si="1"/>
@@ -5436,7 +3796,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -5453,7 +3813,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
       <c r="L17" s="7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="M17" s="12" t="str">
         <f t="shared" si="1"/>
@@ -5463,8 +3823,8 @@
         <f t="shared" si="0"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar</v>
       </c>
-      <c r="O17" s="26" t="s">
-        <v>68</v>
+      <c r="O17" s="24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5575,16 +3935,16 @@
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
       <c r="L24" s="7" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>119</v>
+        <v>67</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>68</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5980,94 +4340,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="48" t="s">
+      <c r="F1" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="39" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="39" t="s">
+      <c r="S1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="P2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -6098,10 +4458,10 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="21" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="R3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Formas de pago",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace descripcion para modificar registro",IF(G3=1,", hacer clic en enlace descripcion para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante los filtros ",""),IF(H3=1,$H$2,"")," ",IF(I3=1,$I$2,""),IF(J3=1,", finalizando con la consulta mediante los filtros ",""),IF(J3=1,$J$2,"")," ",IF(K3=1,$K$2,""),IF(L3=1,", finalizando con la consulta mediante los filtros ",""),IF(L3=1,$L$2,""),IF(M3=1,$M$2,""),IF(N3=1,", finalizando con la consulta mediante los filtros ",""),IF(N3=1,$N$2,""),IF(O3=1,$O$2,""),IF(H3=1," con el dato ",""),IF(H3=1,P3,""))</f>
@@ -6112,7 +4472,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para agregar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta mediante los filtros Pago descripcion Es convenido  con el dato Cheque</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6145,7 +4505,7 @@
       <c r="O4" s="9"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="R4" s="12" t="str">
         <f t="shared" ref="R4:R17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Formas de pago",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace descripcion para modificar registro",IF(G4=1,", hacer clic en enlace descripcion para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante los filtros ",""),IF(H4=1,$H$2,"")," ",IF(I4=1,$I$2,""),IF(J4=1,", finalizando con la consulta mediante los filtros ",""),IF(J4=1,$J$2,"")," ",IF(K4=1,$K$2,""),IF(L4=1,", finalizando con la consulta mediante los filtros ",""),IF(L4=1,$L$2,""),IF(M4=1,$M$2,""),IF(N4=1,", finalizando con la consulta mediante los filtros ",""),IF(N4=1,$N$2,""),IF(O4=1,$O$2,""),IF(H4=1," con el dato ",""),IF(H4=1,P4,""))</f>
@@ -6156,7 +4516,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para agregar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro , finalizando con la consulta mediante los filtros Requiere banco Requiere fecha</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6187,7 +4547,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="R5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6198,7 +4558,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para agregar registro, hacer clic en enlace descripcion para modificar registro  , finalizando con la consulta mediante los filtros Requiere numeroNro de operación</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6231,7 +4591,7 @@
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="7" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="R6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6242,7 +4602,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para agregar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro  , finalizando con la consulta mediante los filtros Requiere montoCorresponde alzamiento</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6267,7 +4627,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="7" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="R7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6277,8 +4637,8 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para agregar registro  </v>
       </c>
-      <c r="T7" s="26" t="s">
-        <v>35</v>
+      <c r="T7" s="24" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6309,10 +4669,10 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="21" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="R8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6323,7 +4683,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para eliminar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta mediante los filtros Pago descripcion Es convenido  con el dato Efectivo</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6355,7 +4715,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="7" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="R9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6366,7 +4726,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para eliminar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro , finalizando con la consulta mediante los filtros Requiere banco Requiere fecha</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -6395,7 +4755,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="7" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="R10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6406,7 +4766,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para eliminar registro, hacer clic en enlace descripcion para modificar registro  , finalizando con la consulta mediante los filtros Requiere numeroNro de operación</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -6438,7 +4798,7 @@
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="7" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="R11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6449,7 +4809,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para eliminar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro  , finalizando con la consulta mediante los filtros Requiere montoCorresponde alzamiento</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -6472,7 +4832,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="7" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="R12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6482,8 +4842,8 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para eliminar registro  </v>
       </c>
-      <c r="T12" s="26" t="s">
-        <v>36</v>
+      <c r="T12" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -6513,10 +4873,10 @@
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="21" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="R13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6527,7 +4887,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para modificar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta mediante los filtros Pago descripcion Es convenido  con el dato Tarjeta</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -6558,7 +4918,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="R14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6569,7 +4929,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para modificar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro , finalizando con la consulta mediante los filtros Requiere banco Requiere fecha</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -6597,7 +4957,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="R15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6608,7 +4968,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para modificar registro, hacer clic en enlace descripcion para modificar registro  , finalizando con la consulta mediante los filtros Requiere numeroNro de operación</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -6639,7 +4999,7 @@
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="R16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6650,7 +5010,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para modificar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro  , finalizando con la consulta mediante los filtros Requiere montoCorresponde alzamiento</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -6672,7 +5032,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="R17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6682,8 +5042,8 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para modificar registro  </v>
       </c>
-      <c r="T17" s="26" t="s">
-        <v>68</v>
+      <c r="T17" s="24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6787,16 +5147,16 @@
       <c r="O22" s="9"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="S22" s="30" t="s">
-        <v>121</v>
+        <v>69</v>
+      </c>
+      <c r="S22" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7353,93 +5713,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>144</v>
+      <c r="A6" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>158</v>
+        <v>90</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7465,7 +5825,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="26"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -7486,7 +5846,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -7521,7 +5881,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="30"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/Procesos Financieros.xlsx
+++ b/Casos Cartera/Procesos Financieros.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Todos" sheetId="15" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Prenda Retenido" sheetId="19" r:id="rId6"/>
     <sheet name=" PreFacturación" sheetId="20" r:id="rId7"/>
     <sheet name="Prendas AFIANZA" sheetId="21" r:id="rId8"/>
+    <sheet name="Seguridad (Usuario)" sheetId="39" r:id="rId9"/>
+    <sheet name="Seguridad (Roles)" sheetId="40" r:id="rId10"/>
+    <sheet name="Seguridad (Funcionalidades)" sheetId="41" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Todos!$A$2:$Q$50</definedName>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="197">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -67,78 +70,12 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Días</t>
-  </si>
-  <si>
-    <t>Feriados</t>
-  </si>
-  <si>
-    <t>Motivo</t>
-  </si>
-  <si>
-    <t>Mes</t>
-  </si>
-  <si>
-    <t>Día feriado</t>
-  </si>
-  <si>
-    <t>Feriado</t>
-  </si>
-  <si>
-    <t>Celebración</t>
-  </si>
-  <si>
     <t>Registro creado exitosamente</t>
   </si>
   <si>
     <t>Registro eliminado exitosamente</t>
   </si>
   <si>
-    <t>TC_Cartera_Feriados_AgregarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_EliminarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_ModificarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_Modificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_AgregarEnlaceDias</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_AgregarEnlaceDiasModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_EliminarEnlaceDias</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_EliminarDiasModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_ModificarEnlaceDiasModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_ModificarEnlaceDias</t>
-  </si>
-  <si>
     <t>Registro modificado exitosamente</t>
   </si>
   <si>
@@ -223,19 +160,10 @@
     <t>Tarjeta</t>
   </si>
   <si>
-    <t>TC_Cartera_Feriados_ConsolidadoError</t>
-  </si>
-  <si>
     <t>TC_Cartera_FormasPago_ConsolidadoError</t>
   </si>
   <si>
     <t>Sistema debe de emitir mensaje de alerta correspondiente a cada situación</t>
-  </si>
-  <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Feriados, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
   </si>
   <si>
     <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Formas de Pago, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
@@ -599,6 +527,105 @@
   </si>
   <si>
     <t>Sistema emite mensaje indicando que no es posible forzar prenda</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFPrendaRetenido_Prenda</t>
+  </si>
+  <si>
+    <t>Validar proceso de prenda retenido, indicando numero de operación que esta asociado a crédito que no es refinanciamiento o renegociacion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_CrearUsuario</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar usuario, ingresando datos requeridos para el nuevo registro, finalizando con la asignación de roles.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Seguridad - sub modulo Usuario, hacer clic en boton agregar, ingresar datos requeridos para el nuevo registro de usuario, hacer clic en boton confirmar, hacer clic en enlace Associated Roles, seleccionar roles a asociar, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Usuario creado y asignación de roles de manera exitosa, sistema debe enviar correo a usuario con enlace para activar cuenta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_UsuarioError</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar usuario, ingresando datos de usuario que ha sido registrado anteriormente.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Seguridad - sub modulo Usuario, hacer clic en boton agregar, ingresar datos requeridos para el nuevo registro de usuario, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando que nombre de usuario ya se encuentra en sistema.</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_UsuarioDesactivar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Seguridad - sub modulo Usuario, hacer clic en enlace nombre usuario, hacer clic en boton desactivar.</t>
+  </si>
+  <si>
+    <t>Sistema inhabilita usuario</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_UsuarioActivar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Seguridad - sub modulo Usuario, hacer clic en enlace nombre usuario, hacer clic en boton activar.</t>
+  </si>
+  <si>
+    <t>Sistema habilita usuario</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_UsuarioDesactivarError</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad activar usuario, seleccionando usuario con estado desactivado.</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad desactivar usuario, seleccionando usuario con estado activo y no que tenga créditos asociados.</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad desactivar usuario, seleccionando usuario con estado activo y que tenga créditos asociados.</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando No se puede inhabilitar a usuario. Está asignado como Ejecutivo Call al menos a 1 crédito.</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_UsuarioEliminar</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad eliminar usuario, seleccionando registro que no contiene información en los modulos del sistema.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Seguridad - sub modulo Usuario, hacer clic en boton eliminar, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Usuario eliminado de manera exitosa</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_UsuarioEliminarError</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad eliminar usuario, seleccionando usuario que ha realizado procesos en el sistema.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Seguridad - sub modulo Usuario, hacer clic en boton eliminar.</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando Eliminación no válida, hay información en…</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_UsuarioModificar</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad modificar usuario, editando dato s de email, teléfono y cargo, finalizando con la consulta luego de hacer la modificación.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Seguridad - sub modulo Usuario, hacer clic en boton modificar, editar datos correspondientes a emila, cargo y teléfono, hacer clic en boton confirmar, consultar registro editado para visualizar cambios.</t>
+  </si>
+  <si>
+    <t>Usuario modificado de manera exitosa, al consultar registro se debe visualizar cambios realizados.</t>
   </si>
 </sst>
 </file>
@@ -759,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -788,9 +815,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1199,7 +1223,7 @@
   <cols>
     <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="34" customWidth="1"/>
     <col min="4" max="8" width="6.140625" style="13" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="54.28515625" style="6" customWidth="1"/>
@@ -1209,64 +1233,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="37" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="37" t="s">
+      <c r="L1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="29" t="s">
+      <c r="G2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1275,7 +1299,7 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="32">
         <v>1</v>
       </c>
       <c r="D3" s="5"/>
@@ -1285,16 +1309,16 @@
       <c r="H3" s="5"/>
       <c r="I3" s="8"/>
       <c r="J3" s="7" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1304,7 +1328,7 @@
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="5">
         <v>1</v>
       </c>
@@ -1314,16 +1338,16 @@
       <c r="H4" s="5"/>
       <c r="I4" s="8"/>
       <c r="J4" s="7" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1333,7 +1357,7 @@
       <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
         <v>1</v>
@@ -1345,16 +1369,16 @@
       <c r="H5" s="5"/>
       <c r="I5" s="8"/>
       <c r="J5" s="7" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1364,7 +1388,7 @@
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1376,16 +1400,16 @@
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="7" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1395,7 +1419,7 @@
       <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1405,16 +1429,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1424,7 +1448,7 @@
       <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1432,22 +1456,22 @@
       <c r="H8" s="5"/>
       <c r="I8" s="8"/>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="33"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1459,16 +1483,16 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="L10" s="7"/>
@@ -1476,7 +1500,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="C11" s="33"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1487,8 +1511,8 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="33"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1499,7 +1523,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="C13" s="33"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1510,7 +1534,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="C14" s="33"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1521,7 +1545,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="C15" s="33"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1532,7 +1556,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="C16" s="33"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1543,7 +1567,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="C17" s="33"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1552,24 +1576,24 @@
       <c r="I17" s="8"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="24"/>
+    <row r="18" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="12"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="24"/>
+      <c r="M18" s="23"/>
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="33"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1584,7 +1608,7 @@
     <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="33"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1599,7 +1623,7 @@
     <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="33"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1614,7 +1638,7 @@
     <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="33"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1629,7 +1653,7 @@
     <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="33"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1644,7 +1668,7 @@
     <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="33"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1659,7 +1683,7 @@
     <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="33"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1671,24 +1695,24 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="24"/>
+    <row r="26" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="12"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="C27" s="33"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1699,7 +1723,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="C28" s="33"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1710,7 +1734,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="C29" s="33"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1721,7 +1745,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1732,7 +1756,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="C31" s="33"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1743,7 +1767,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="C32" s="33"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1754,7 +1778,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="C33" s="33"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1765,7 +1789,7 @@
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="C34" s="33"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -1779,7 +1803,7 @@
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="C35" s="33"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -1793,7 +1817,7 @@
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="C36" s="33"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -1807,7 +1831,7 @@
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="C37" s="33"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -1815,21 +1839,21 @@
       <c r="H37" s="5"/>
       <c r="I37" s="8"/>
       <c r="J37" s="7" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L37" s="28" t="s">
-        <v>74</v>
+        <v>48</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="C38" s="33"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -1843,7 +1867,7 @@
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="C39" s="33"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -1857,7 +1881,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="C40" s="33"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -1868,7 +1892,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="C41" s="33"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -1879,7 +1903,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="C42" s="33"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -1890,7 +1914,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="C43" s="33"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -1901,7 +1925,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="C44" s="33"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -1912,7 +1936,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="C45" s="33"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -1923,7 +1947,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="C46" s="33"/>
+      <c r="C46" s="32"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -1934,7 +1958,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
-      <c r="C47" s="33"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -1945,7 +1969,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
-      <c r="C48" s="33"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -1956,7 +1980,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
-      <c r="C49" s="33"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -1967,7 +1991,7 @@
     </row>
     <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
-      <c r="C50" s="33"/>
+      <c r="C50" s="32"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -1990,6 +2014,678 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="141.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="123.28515625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="141.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="123.28515625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2011,93 +2707,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2118,11 +2814,11 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="12"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="24"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -2136,23 +2832,23 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="24"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="24"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="24"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -2187,7 +2883,7 @@
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="28"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2318,93 +3014,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>159</v>
+        <v>132</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2425,11 +3121,11 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+    <row r="12" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
       <c r="B12" s="12"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="24"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -2443,17 +3139,17 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+    <row r="17" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="24"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="24"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -2494,7 +3190,7 @@
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="28"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2626,86 +3322,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="12"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="24"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -2722,7 +3418,7 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2730,7 +3426,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="D12" s="24"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -2746,7 +3442,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="D17" s="24"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -2775,7 +3471,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="28"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2910,9 +3606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4:D6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2924,79 +3620,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3045,7 +3741,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="D17" s="24"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -3062,7 +3758,7 @@
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="28"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3207,1105 +3903,276 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="255.42578125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="255.42578125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="151.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="37" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="37" t="s">
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="21">
-        <v>12</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Feriados",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Días para modificar registro",IF(G3=1,", hacer clic en enlace Días para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",IF(I3=1,", finalizando con la consulta mediante el filtro ",IF(J3=1,", finalizando con la consulta mediante el filtro ",""))),IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,""))),IF(H3=1," con el dato ",IF(I3=1," con el dato ",IF(J3=1," con el dato ",""))),IF(H3=1,K3,IF(I3=1,K3,IF(J3=1,K3,""))))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 12</v>
-      </c>
-      <c r="N3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Días para modificar registro",IF(G3=1,", hacer clic en enlace Días para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",IF(I3=1,", finalizando con la consulta mediante el filtro ",IF(J3=1,", finalizando con la consulta mediante el filtro ",""))),IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,""))),IF(H3=1," con el dato ",IF(I3=1," con el dato ",IF(J3=1," con el dato ",""))),IF(H3=1,K3,IF(I3=1,K3,IF(J3=1,K3,""))))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 12</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10">
-        <v>10</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Feriados",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Días para modificar registro",IF(G4=1,", hacer clic en enlace Días para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",IF(I4=1,", finalizando con la consulta mediante el filtro ",IF(J4=1,", finalizando con la consulta mediante el filtro ",""))),IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,""))),IF(H4=1," con el dato ",IF(I4=1," con el dato ",IF(J4=1," con el dato ",""))),IF(H4=1,K4,IF(I4=1,K4,IF(J4=1,K4,""))))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 10</v>
-      </c>
-      <c r="N4" s="12" t="str">
-        <f t="shared" ref="N4:N17" si="0">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Días para modificar registro",IF(G4=1,", hacer clic en enlace Días para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",IF(I4=1,", finalizando con la consulta mediante el filtro ",IF(J4=1,", finalizando con la consulta mediante el filtro ",""))),IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,""))),IF(H4=1," con el dato ",IF(I4=1," con el dato ",IF(J4=1," con el dato ",""))),IF(H4=1,K4,IF(I4=1,K4,IF(J4=1,K4,""))))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 10</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="12" t="str">
-        <f t="shared" ref="M5:M17" si="1">CONCATENATE("Validar funcionalidad ",IF(B5=1,$B$2,IF(C5=1,$C$2,IF(D5=1,$D$2)))," del modulo Maestro, sub-modulo Feriados",IF(E5=1,", considerando la opcion exportar a excel",""),IF(F5=1,", hacer clic en enlace Días para modificar registro",IF(G5=1,", hacer clic en enlace Días para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",IF(I5=1,", finalizando con la consulta mediante el filtro ",IF(J5=1,", finalizando con la consulta mediante el filtro ",""))),IF(H5=1,$H$2,IF(I5=1,$I$2,IF(J5=1,$J$2,""))),IF(H5=1," con el dato ",IF(I5=1," con el dato ",IF(J5=1," con el dato ",""))),IF(H5=1,K5,IF(I5=1,K5,IF(J5=1,K5,""))))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Día feriado</v>
-      </c>
-      <c r="N5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Día feriado</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="N6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados</v>
-      </c>
-      <c r="N7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="21">
-        <v>30</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 30</v>
-      </c>
-      <c r="N8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 30</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10">
-        <v>5</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 5</v>
-      </c>
-      <c r="N9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 5</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Feriados, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Feriado</v>
-      </c>
-      <c r="N10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Feriado</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="N11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Feriados</v>
-      </c>
-      <c r="N12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar</v>
-      </c>
-      <c r="O12" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="21">
-        <v>2</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 2</v>
-      </c>
-      <c r="N13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 2</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10">
-        <v>3</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 3</v>
-      </c>
-      <c r="N14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 3</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9">
-        <v>1</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Feriados, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Celebración</v>
-      </c>
-      <c r="N15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Celebración</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="N16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Feriados</v>
-      </c>
-      <c r="N17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar</v>
-      </c>
-      <c r="O17" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="N24" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-    </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-    </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="7"/>
-    </row>
-    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
+    <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="L1:L2"/>
+  <mergeCells count="4">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4317,7 +4184,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="17" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4326,7 +4193,7 @@
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
     <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="15" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
     <col min="7" max="7" width="5.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
@@ -4340,94 +4207,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="45" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="37" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="37" t="s">
+      <c r="S1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="H2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -4438,7 +4305,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>1</v>
       </c>
       <c r="F3" s="5">
@@ -4457,11 +4324,11 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
-      <c r="P3" s="21" t="s">
-        <v>61</v>
+      <c r="P3" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="R3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Formas de pago",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace descripcion para modificar registro",IF(G3=1,", hacer clic en enlace descripcion para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante los filtros ",""),IF(H3=1,$H$2,"")," ",IF(I3=1,$I$2,""),IF(J3=1,", finalizando con la consulta mediante los filtros ",""),IF(J3=1,$J$2,"")," ",IF(K3=1,$K$2,""),IF(L3=1,", finalizando con la consulta mediante los filtros ",""),IF(L3=1,$L$2,""),IF(M3=1,$M$2,""),IF(N3=1,", finalizando con la consulta mediante los filtros ",""),IF(N3=1,$N$2,""),IF(O3=1,$O$2,""),IF(H3=1," con el dato ",""),IF(H3=1,P3,""))</f>
@@ -4472,7 +4339,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para agregar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta mediante los filtros Pago descripcion Es convenido  con el dato Cheque</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4484,7 +4351,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
@@ -4505,7 +4372,7 @@
       <c r="O4" s="9"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="R4" s="12" t="str">
         <f t="shared" ref="R4:R17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Formas de pago",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace descripcion para modificar registro",IF(G4=1,", hacer clic en enlace descripcion para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante los filtros ",""),IF(H4=1,$H$2,"")," ",IF(I4=1,$I$2,""),IF(J4=1,", finalizando con la consulta mediante los filtros ",""),IF(J4=1,$J$2,"")," ",IF(K4=1,$K$2,""),IF(L4=1,", finalizando con la consulta mediante los filtros ",""),IF(L4=1,$L$2,""),IF(M4=1,$M$2,""),IF(N4=1,", finalizando con la consulta mediante los filtros ",""),IF(N4=1,$N$2,""),IF(O4=1,$O$2,""),IF(H4=1," con el dato ",""),IF(H4=1,P4,""))</f>
@@ -4516,7 +4383,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para agregar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro , finalizando con la consulta mediante los filtros Requiere banco Requiere fecha</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4528,7 +4395,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="5">
         <v>1</v>
       </c>
@@ -4547,7 +4414,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="7" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="R5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4558,7 +4425,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para agregar registro, hacer clic en enlace descripcion para modificar registro  , finalizando con la consulta mediante los filtros Requiere numeroNro de operación</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4570,7 +4437,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
       <c r="F6" s="5"/>
@@ -4591,7 +4458,7 @@
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="7" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="R6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4602,7 +4469,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para agregar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro  , finalizando con la consulta mediante los filtros Requiere montoCorresponde alzamiento</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4614,7 +4481,7 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="5"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
@@ -4627,7 +4494,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="R7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4637,8 +4504,8 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para agregar registro  </v>
       </c>
-      <c r="T7" s="24" t="s">
-        <v>19</v>
+      <c r="T7" s="23" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4649,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>1</v>
       </c>
       <c r="F8" s="5">
@@ -4668,11 +4535,11 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="21" t="s">
-        <v>62</v>
+      <c r="P8" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="R8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4683,7 +4550,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para eliminar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta mediante los filtros Pago descripcion Es convenido  con el dato Efectivo</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4694,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
       <c r="F9" s="5"/>
@@ -4715,7 +4582,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="R9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4726,7 +4593,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para eliminar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro , finalizando con la consulta mediante los filtros Requiere banco Requiere fecha</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -4755,7 +4622,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="R10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4766,7 +4633,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para eliminar registro, hacer clic en enlace descripcion para modificar registro  , finalizando con la consulta mediante los filtros Requiere numeroNro de operación</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -4777,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>1</v>
       </c>
       <c r="F11" s="5"/>
@@ -4798,7 +4665,7 @@
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="R11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4809,7 +4676,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para eliminar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro  , finalizando con la consulta mediante los filtros Requiere montoCorresponde alzamiento</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -4832,7 +4699,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="7" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="R12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4842,8 +4709,8 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para eliminar registro  </v>
       </c>
-      <c r="T12" s="24" t="s">
-        <v>20</v>
+      <c r="T12" s="23" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -4853,7 +4720,7 @@
       <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>1</v>
       </c>
       <c r="F13" s="5">
@@ -4872,11 +4739,11 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="21" t="s">
-        <v>63</v>
+      <c r="P13" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="R13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4887,7 +4754,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para modificar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta mediante los filtros Pago descripcion Es convenido  con el dato Tarjeta</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -4897,7 +4764,7 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>1</v>
       </c>
       <c r="F14" s="5"/>
@@ -4918,7 +4785,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="R14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4929,7 +4796,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para modificar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro , finalizando con la consulta mediante los filtros Requiere banco Requiere fecha</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -4955,9 +4822,9 @@
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="20"/>
+      <c r="P15" s="19"/>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="R15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4968,7 +4835,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para modificar registro, hacer clic en enlace descripcion para modificar registro  , finalizando con la consulta mediante los filtros Requiere numeroNro de operación</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -4978,7 +4845,7 @@
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="5"/>
@@ -4999,7 +4866,7 @@
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="7" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="R16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5010,7 +4877,7 @@
         <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para modificar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro  , finalizando con la consulta mediante los filtros Requiere montoCorresponde alzamiento</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -5032,7 +4899,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="R17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5042,15 +4909,15 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para modificar registro  </v>
       </c>
-      <c r="T17" s="24" t="s">
-        <v>36</v>
+      <c r="T17" s="23" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="C18" s="5"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="5"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -5071,7 +4938,7 @@
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
@@ -5092,7 +4959,7 @@
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="5"/>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -5113,7 +4980,7 @@
       <c r="A21" s="8"/>
       <c r="B21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="5"/>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
@@ -5134,7 +5001,7 @@
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="5"/>
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
@@ -5147,23 +5014,23 @@
       <c r="O22" s="9"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="S22" s="28" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="S22" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="5"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
@@ -5184,7 +5051,7 @@
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="5"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
@@ -5205,7 +5072,7 @@
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="5"/>
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
@@ -5226,7 +5093,7 @@
       <c r="A26" s="8"/>
       <c r="B26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="5"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
@@ -5366,7 +5233,7 @@
       <c r="A34" s="8"/>
       <c r="C34" s="5"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="5"/>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
@@ -5387,7 +5254,7 @@
       <c r="A35" s="8"/>
       <c r="C35" s="5"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="5"/>
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
@@ -5408,7 +5275,7 @@
       <c r="A36" s="8"/>
       <c r="C36" s="5"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="15"/>
       <c r="F36" s="5"/>
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
@@ -5429,7 +5296,7 @@
       <c r="A37" s="8"/>
       <c r="C37" s="5"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
+      <c r="E37" s="15"/>
       <c r="F37" s="5"/>
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
@@ -5450,7 +5317,7 @@
       <c r="A38" s="8"/>
       <c r="C38" s="5"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
+      <c r="E38" s="15"/>
       <c r="F38" s="5"/>
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
@@ -5471,7 +5338,7 @@
       <c r="A39" s="8"/>
       <c r="C39" s="5"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
+      <c r="E39" s="15"/>
       <c r="F39" s="5"/>
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
@@ -5662,7 +5529,7 @@
       <c r="A50" s="8"/>
       <c r="C50" s="5"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
+      <c r="E50" s="15"/>
       <c r="F50" s="5"/>
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
@@ -5713,93 +5580,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>77</v>
+      <c r="A6" s="30" t="s">
+        <v>52</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>91</v>
+        <v>65</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5825,7 +5692,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="24"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -5846,7 +5713,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="24"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -5881,7 +5748,344 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="28"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="141.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="123.28515625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/Procesos Financieros.xlsx
+++ b/Casos Cartera/Procesos Financieros.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Todos" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="205">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -626,6 +626,30 @@
   </si>
   <si>
     <t>Usuario modificado de manera exitosa, al consultar registro se debe visualizar cambios realizados.</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_CrearRoles</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_AsociarFuncionalidadRoles</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_ModificarRoles</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_RolesEliminarError</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar rol, ingresando datos requeridos para el nuevo registro.</t>
+  </si>
+  <si>
+    <t>Validar asignación de funcionalidades a rol para luego acceder con usuario a las funcionalidades del sistema seleccionadas.</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad eliminar rol, seleccionando registro que esta asociado a funcionalidades.</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad modificar rol, finanlizando con la visualización de los datos modificados.</t>
   </si>
 </sst>
 </file>
@@ -2019,10 +2043,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,7 +2057,7 @@
     <col min="4" max="4" width="123.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -2055,10 +2079,10 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>168</v>
@@ -2069,10 +2093,10 @@
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>172</v>
@@ -2083,87 +2107,48 @@
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>192</v>
-      </c>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -2172,33 +2157,40 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2222,32 +2214,20 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
@@ -2258,17 +2238,29 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -2282,29 +2274,17 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
@@ -2324,23 +2304,11 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2357,7 +2325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2369,7 +2337,7 @@
     <col min="4" max="4" width="123.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>

--- a/Casos Cartera/Procesos Financieros.xlsx
+++ b/Casos Cartera/Procesos Financieros.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Todos" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="225">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -185,67 +185,6 @@
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Procesos - sub modulo Tabajar con remesas, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios.</t>
   </si>
   <si>
-    <t>TC_Cartera_ProcesosSeleccion_CartaGuia</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosSeleccion_ExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosSeleccion_CartaGuiaPolitica</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosSeleccion_IncluirPagares</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosSeleccion_ExcluirPagares</t>
-  </si>
-  <si>
-    <t>Validar inclusión de pagares que cumple con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Selección de creditos (afianza), seleccionar opcion si del filtro excluidos, hacer clic en boton incorporar, hacer clic en boton si</t>
-  </si>
-  <si>
-    <t>Inclusion de pagare de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar emision de carta guia con pagares que cumple con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Selección de creditos (afianza), hacer clic en boton crear carta guia</t>
-  </si>
-  <si>
-    <t>Emisión de carta guia con pagares que cumple con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Validar descarga de archivo excel con pagares que cumple y no cumplen con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Selección de creditos (afianza), seleccionar opcion con politica del filtro Política Selección, hacer clic en boton exportar a excel, luego, seleccionar opcion sin politica del filtro Política Selección, hacer clic en boton exportar a excel</t>
-  </si>
-  <si>
-    <t>Descarga de archivo excel, visualizando registro según criterios seleccionados</t>
-  </si>
-  <si>
-    <t>Validar emision de carta guia con pagares que no cumple con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Selección de creditos (afianza), seleccionar opcion sin politica del filtro Política Selección, hacer clic en boton crear carta guia</t>
-  </si>
-  <si>
-    <t>Emisión de carta guia con pagares que no cumple con las políticas aplicadas en los criterios 
-de selección, la selección de pagares queda a criterio del usuario para emitir carta</t>
-  </si>
-  <si>
-    <t>Validar exclusión de pagares que cumplen y no cumplen con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Selección de creditos (afianza), seleccionar opcion sin politica del filtro Política Selección, hacer clic en boton desmarcar credito, hacer clic en boton si, luego, seleccionar opcion sin politica del filtro Política Selección, hacer clic en boton desmarcar credito, hacer clic en boton si</t>
-  </si>
-  <si>
-    <t>Exclusion de pagare de manera exitosa</t>
-  </si>
-  <si>
     <t>Todos</t>
   </si>
   <si>
@@ -650,6 +589,126 @@
   </si>
   <si>
     <t>Validar funcionalidad modificar rol, finanlizando con la visualización de los datos modificados.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Seguridad - sub modulo Roles, hacer clic en boton agregar, ingresar datos requeridos para el nuevo registro de roles, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Registro de rol creado de manera exitosa</t>
+  </si>
+  <si>
+    <t>Asignar funcionalidad a rol de manera exitosa, el usuario que posea el rol, solo puede acceder a las funcionalidades configuradas</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Seguridad - sub modulo Roles, hacer clic en enlace Functionalities, seleccionar funcionalidades, hacer clic en boton confirmar, asignar rol a usuario, acceder con usuario a las funcionalidades configuradas en el rol.</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando Eliminación no válida, hay información…</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Seguridad - sub modulo Roles, hacer clic en boton modificar, editar datos del rol, hacer clic en boton confirmar, consultar registro editado para visualizar cambios.</t>
+  </si>
+  <si>
+    <t>Rol modificado de manera exitosa, al consultar registro se debe visualizar cambios realizados.</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_RolesDuplicados</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar rol, ingresando datos de rol existente en sistema.</t>
+  </si>
+  <si>
+    <t>Sistema debe emitir mensaje indicando que no es posible agregar registro ya que existe en sistema</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_CrearFuncionalidades</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_FuncionalidadRoles</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_FuncionalidadEliminarError</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_ModificarFuncionalidad</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Seguridad_FuncionalidadesDuplicados</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar funcionalidades, ingresando datos requeridos para el nuevo registro.</t>
+  </si>
+  <si>
+    <t>Validar asociacion de roles afuncionalidades para luego acceder con usuario a las funcionalidades del sistema seleccionadas.</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad eliminar funcionalidades, seleccionando registro que esta asociado a roles.</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad modificar funcionalidades, finanlizando con la visualización de los datos modificados.</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar funcionalidades, ingresando datos de funcionalidad existente en sistema.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Seguridad - sub modulo Funcionalidades, hacer clic en boton agregar, ingresar datos requeridos para el nuevo registro de funcionalidad, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Seguridad - sub modulo Funcionalidades, hacer clic en enlace Roles, seleccionar rol o roles, hacer clic en boton confirmar, asignar rol a usuario, acceder con usuario a las funcionalidades asiciada al rol.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Seguridad - sub modulo Funcionalidades, hacer clic en boton eliminar.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Seguridad - sub modulo Funcionalidades, hacer clic en boton modificar, editar datos de la funcionalidad, hacer clic en boton confirmar, consultar registro editado para visualizar cambios.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Seguridad - sub modulo Funcionalidades, hacer clic en boton agregar, ingresar datos requeridos para el nuevo registro de funcionalidad, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Registro de funcionalidad creado de manera exitosa</t>
+  </si>
+  <si>
+    <t>Asociación de rol o roles a funcionalidad de manera exitosa, el usuario que posea el rol, solo puede acceder a las funcionalidades asociadas</t>
+  </si>
+  <si>
+    <t>Funcionalidad modificado de manera exitosa, al consultar registro se debe visualizar cambios realizados.</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFPrendasAfianza_VerWorkFlow</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFPrendasAfianza_ObtenerDocumentos</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosFPrendasAfianza_ExportarExcel</t>
+  </si>
+  <si>
+    <t>Validar consulta de workflow que pertenece a proceso tipo prenda</t>
+  </si>
+  <si>
+    <t>Validar descarga de documentos que pertenece a proceso tipo prenda</t>
+  </si>
+  <si>
+    <t>Validar descarga de archivo excel, el cual contiene registros de procesos tipo prenda</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Procesos Financieros - sub modulo Prendas AFIANZAS, hacer clic en boton ver workflow</t>
+  </si>
+  <si>
+    <t>Consulta de workflow de manera exitosa</t>
+  </si>
+  <si>
+    <t>Descarga de documentos de manera exitosa</t>
+  </si>
+  <si>
+    <t>Descarga de archivo excel, se debe de visualizar datos correspondientes a registros de procesos tipo prenda</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Procesos Financieros - sub modulo Prendas AFIANZAS, hacer clic en boton obtener documentos</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Procesos Financieros - sub modulo Prendas AFIANZAS, hacer clic en boton exportar a excel</t>
   </si>
 </sst>
 </file>
@@ -1258,10 +1317,10 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>4</v>
@@ -1291,19 +1350,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>46</v>
@@ -1333,16 +1392,16 @@
       <c r="H3" s="5"/>
       <c r="I3" s="8"/>
       <c r="J3" s="7" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1362,16 +1421,16 @@
       <c r="H4" s="5"/>
       <c r="I4" s="8"/>
       <c r="J4" s="7" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1393,16 +1452,16 @@
       <c r="H5" s="5"/>
       <c r="I5" s="8"/>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1424,16 +1483,16 @@
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="7" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1453,16 +1512,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1480,16 +1539,16 @@
       <c r="H8" s="5"/>
       <c r="I8" s="8"/>
       <c r="J8" s="7" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2045,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,7 +2113,7 @@
     <col min="1" max="1" width="51.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="141.42578125" style="12" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="123.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="133.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -2071,7 +2130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -2079,63 +2138,73 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -2323,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,7 +2403,7 @@
     <col min="1" max="1" width="51.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="141.42578125" style="12" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="123.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="140.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -2351,7 +2420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="14" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -2359,124 +2428,95 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>184</v>
+        <v>209</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>192</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="C11" s="12"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -2493,11 +2533,13 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -2520,13 +2562,13 @@
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2547,11 +2589,8 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
@@ -2571,8 +2610,11 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -2604,11 +2646,8 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
@@ -2637,14 +2676,11 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2696,72 +2732,72 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3003,72 +3039,72 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3311,58 +3347,58 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3386,7 +3422,7 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3609,58 +3645,58 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3908,10 +3944,10 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="7"/>
@@ -5534,17 +5570,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="58" style="6" customWidth="1"/>
     <col min="2" max="2" width="126.7109375" style="12" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="101" style="7" customWidth="1"/>
+    <col min="4" max="4" width="108.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5569,73 +5605,57 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>57</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>61</v>
+        <v>218</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>66</v>
-      </c>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -5880,114 +5900,114 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/Casos Cartera/Procesos Financieros.xlsx
+++ b/Casos Cartera/Procesos Financieros.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Todos" sheetId="15" r:id="rId1"/>
@@ -4188,7 +4188,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="17" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5570,8 +5570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -5865,9 +5865,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
